--- a/Optimal_Power_Flow/Distribution/Matpower/Snapshot/Output_data/Variables/33bus_MINLP_Opt_problem_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/Matpower/Snapshot/Output_data/Variables/33bus_MINLP_Opt_problem_Variables.xlsx
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.3838290027606049</v>
+        <v>0.3838253421901032</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.270722744367806</v>
+        <v>0.2697582621641895</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1250032430719646</v>
+        <v>0.1241494702470188</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1125302771826812</v>
+        <v>0.1116809393930237</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -833,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1061326863826914</v>
+        <v>0.1052875289700322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -844,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.044163392669221</v>
+        <v>0.04289845788592715</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -855,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.02413769819556473</v>
+        <v>0.02287405040155399</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.03620681910570396</v>
+        <v>0.03267277928043315</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -877,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.00703653228602231</v>
+        <v>0.02818594410034981</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -888,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.00103301115726783</v>
+        <v>-0.006000000000012879</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -899,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.003467116098491302</v>
+        <v>-0.01050052755259503</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -910,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.02205991943462378</v>
+        <v>0.01821761847128108</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -921,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.0159819928089903</v>
+        <v>0.01215294744684812</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -932,7 +932,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.003965573715714187</v>
+        <v>0.0001398841198383817</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -943,7 +943,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.02090736037465413</v>
+        <v>0.02057852768309193</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -954,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.01485990077688623</v>
+        <v>0.01453150871488647</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.008804174200742462</v>
+        <v>0.008476239023501489</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -976,7 +976,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.1019307325300316</v>
+        <v>0.1028915323461617</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -987,7 +987,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.09276905993081754</v>
+        <v>0.0937280589096855</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -998,7 +998,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.08250572981977808</v>
+        <v>0.08344971272019294</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1009,7 +1009,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.04088186162716558</v>
+        <v>0.04411232645144134</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.1336671353960824</v>
+        <v>0.1335709460227765</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1031,7 +1031,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.123933547865948</v>
+        <v>0.1238382143503482</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1042,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.08065682256815389</v>
+        <v>0.08056307177136721</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1053,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.05520298281116351</v>
+        <v>0.0556312524215289</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1064,7 +1064,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.04913837772195531</v>
+        <v>0.04956612100437693</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1075,7 +1075,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.0430635543416646</v>
+        <v>0.04349064675088245</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.03683708497536051</v>
+        <v>0.03726207807551637</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1097,7 +1097,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.0626539596989103</v>
+        <v>0.06298516475547847</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1108,7 +1108,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.04236496761812368</v>
+        <v>0.04269524570108813</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.02724270606728089</v>
+        <v>0.02757121796906253</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1130,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.006226906158018675</v>
+        <v>0.006555028647275078</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.03233549090653563</v>
+        <v>0.0300453463955849</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1152,7 +1152,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.02305652304560285</v>
+        <v>0.02657431626641243</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1163,7 +1163,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>-0.03152822799220615</v>
+        <v>-0.03472154274767397</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>-0.0002165075760686037</v>
+        <v>-0.0005443612316211053</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1185,7 +1185,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.03805659449378848</v>
+        <v>0.0379638730934021</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2387928162878552</v>
+        <v>0.2388076492752162</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1231,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1592672401703794</v>
+        <v>0.159430366996629</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1242,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.06722923736180419</v>
+        <v>0.06741418122859599</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1253,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.05898834143640386</v>
+        <v>0.0591755633291875</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1264,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.05578582753346772</v>
+        <v>0.05597519344437174</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1275,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.01114168152840378</v>
+        <v>0.01142739610877896</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1286,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.001056731440742809</v>
+        <v>0.0013467158132352</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1297,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.01873914205001714</v>
+        <v>0.01927334777547873</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1308,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-0.0009689416111733351</v>
+        <v>-0.005563719461774141</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-0.002971445560120856</v>
+        <v>-0.001999999999998892</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.005971494613850936</v>
+        <v>-0.005000174419734549</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1341,7 +1341,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.01750093360080918</v>
+        <v>0.01803680450980583</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1352,7 +1352,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.01393961485772444</v>
+        <v>0.0144859223345879</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1363,7 +1363,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.005917993654774634</v>
+        <v>0.006468727272137542</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1374,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.02242981481887085</v>
+        <v>0.02253584591936963</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1385,7 +1385,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.02039515043817808</v>
+        <v>0.02050150940902729</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1396,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.01832073910353849</v>
+        <v>0.0184277164386053</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1407,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.07292617303975391</v>
+        <v>0.07277803346138256</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1418,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.06877179053949245</v>
+        <v>0.06862203594425154</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1429,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.06363341349176821</v>
+        <v>0.06347014761474767</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1440,7 +1440,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.0313661435307111</v>
+        <v>0.03097229806592949</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1451,7 +1451,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.08648331274596543</v>
+        <v>0.08646891780843546</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1462,7 +1462,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.08098204363793116</v>
+        <v>0.08096825031151056</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1473,7 +1473,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.05997387665495779</v>
+        <v>0.05996134206790771</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1484,7 +1484,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.04198261957975902</v>
+        <v>0.0418936119943929</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1495,7 +1495,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.03944970365252232</v>
+        <v>0.0393604366814202</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1506,7 +1506,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.03691159957285528</v>
+        <v>0.03682200907943756</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1517,7 +1517,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.03471191910563221</v>
+        <v>0.03462048445980948</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1528,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.06699423196479692</v>
+        <v>0.06689018655369772</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1539,7 +1539,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.006847027840267472</v>
+        <v>0.006742513498408265</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1550,7 +1550,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>-0.0002738091559990607</v>
+        <v>-0.0003800631702510771</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1561,7 +1561,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>-0.01029223154884207</v>
+        <v>-0.01039893246349877</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1572,7 +1572,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.02793035660205589</v>
+        <v>0.02815667280809953</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1583,7 +1583,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.01762634226773319</v>
+        <v>0.01720260735763812</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1594,7 +1594,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>-0.02697282957502889</v>
+        <v>-0.02653810209835106</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1605,7 +1605,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.01430451610664996</v>
+        <v>0.01441156268663768</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1616,7 +1616,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.03950420545007205</v>
+        <v>0.03949248247737636</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.382653479668518</v>
+        <v>-0.3826497945103386</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>-0.2676703789560871</v>
+        <v>-0.2667204162697959</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>-0.1245302769023542</v>
+        <v>-0.1236809393930255</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>-0.1121326854228245</v>
+        <v>-0.1112875289700296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>-0.105366373298837</v>
+        <v>-0.1045297103074525</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.04413769595079588</v>
+        <v>-0.0428740504015611</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.02411016495724435</v>
+        <v>-0.02284929154443837</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.03609305233879907</v>
+        <v>-0.03257431626641187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-0.007033008110239112</v>
+        <v>-0.02812833131351345</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-0.001032880859603616</v>
+        <v>0.006000527552599383</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.00346831156247866</v>
+        <v>0.01050392427637906</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>-0.0219819891823751</v>
+        <v>-0.01815294744684855</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.01596556988673262</v>
+        <v>-0.01213988411983777</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>-0.003963546440113462</v>
+        <v>-0.0001382112011015092</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.02085989646986897</v>
+        <v>-0.02053150871488857</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>-0.01480416922415437</v>
+        <v>-0.01447623902350111</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.008783487192126113</v>
+        <v>-0.008455638768378418</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.1017690623747312</v>
+        <v>-0.1027280589096889</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-0.09150572932043423</v>
+        <v>-0.09244971272019054</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.08221735133493699</v>
+        <v>-0.08315767284703043</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>-0.04075874270826298</v>
+        <v>-0.04397758497238267</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>-0.1329335472929372</v>
+        <v>-0.1328382143503515</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>-0.1226568202676812</v>
+        <v>-0.122563071771367</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>-0.08005659113327514</v>
+        <v>-0.07996387309340311</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-0.05513837537904107</v>
+        <v>-0.05556612100437687</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.0490635517989261</v>
+        <v>-0.04949064675089174</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-0.04283708177019414</v>
+        <v>-0.04326207807551709</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.03669865276696191</v>
+        <v>-0.03712230539896708</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>-0.06236496339554221</v>
+        <v>-0.06269524570108634</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>-0.04224270097998083</v>
+        <v>-0.042571217969063</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>-0.027226900876173</v>
+        <v>-0.02755502864727538</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>-0.006223518279836238</v>
+        <v>-0.006551491029138871</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>-0.03209665170618734</v>
+        <v>-0.02982348773599277</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>-0.02294381002704831</v>
+        <v>-0.02644031648198835</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.03175874448433006</v>
+        <v>0.03497758497238507</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.0002235235696555933</v>
+        <v>0.0005514910291379302</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>-0.03795530326810057</v>
+        <v>-0.03786285935650879</v>
       </c>
     </row>
   </sheetData>
@@ -2082,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.238193580004463</v>
+        <v>-0.2382084004580065</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2093,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>-0.1577125769758858</v>
+        <v>-0.1578830990370328</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2104,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>-0.06698836060219904</v>
+        <v>-0.06717556332919372</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>-0.05878584193341396</v>
+        <v>-0.05897519344437185</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>-0.05512430940125057</v>
+        <v>-0.05532100810317075</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.01105673959805387</v>
+        <v>-0.01134671581323232</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.00104763239052108</v>
+        <v>-0.001338533626969785</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.01865740670292126</v>
+        <v>-0.01920260735763879</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.000971439590175649</v>
+        <v>0.005604556111448389</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.002971488639200714</v>
+        <v>0.002000174419730882</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.005971889908837014</v>
+        <v>0.005001297588547615</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>-0.0174396192674644</v>
+        <v>-0.01798592233458685</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.01391799761016621</v>
+        <v>-0.01446872727213666</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>-0.005916189345189338</v>
+        <v>-0.006467238346154147</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.02239515338498954</v>
+        <v>-0.02250150940902529</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>-0.02032074081656798</v>
+        <v>-0.0204277164386033</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.01830451732355698</v>
+        <v>-0.01841156268663724</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.07277189633668968</v>
+        <v>-0.07262203594426353</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-0.06763343240273212</v>
+        <v>-0.06747014761474546</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.06329651418249327</v>
+        <v>-0.06312897087403613</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>-0.03120335701260046</v>
+        <v>-0.0307941443230586</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>-0.08598206005935438</v>
+        <v>-0.08596825031151134</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>-0.07997388379390813</v>
+        <v>-0.07996134206790728</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>-0.05950420895518604</v>
+        <v>-0.05949248247737238</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-0.04194971116359625</v>
+        <v>-0.04186043668141792</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.0394116061470271</v>
+        <v>-0.03932200907944505</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-0.03671192304785009</v>
+        <v>-0.03662048445980481</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.03459132024316069</v>
+        <v>-0.03449871781321079</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>-0.06684702892160033</v>
+        <v>-0.06674251349840787</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>-0.006726191661563519</v>
+        <v>-0.006619936829749484</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.0002922307297872351</v>
+        <v>0.000398932463504309</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.01029749915298339</v>
+        <v>0.0104044328891213</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>-0.02769151740170761</v>
+        <v>-0.0279348141485074</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>-0.01751362924917865</v>
+        <v>-0.01706860757321405</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.0272033460671528</v>
+        <v>0.02679414432306215</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>-0.01429750011306297</v>
+        <v>-0.01440443288912086</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>-0.03940291422438413</v>
+        <v>-0.03939146874048305</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01175523092086905</v>
+        <v>0.01175547679739971</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.03052365411718938</v>
+        <v>0.03037845894388175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2535,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.004729661696103449</v>
+        <v>0.004685308539874921</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2546,7 +2546,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.003975917598566525</v>
+        <v>0.003934104229930386</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2557,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.007663130838544419</v>
+        <v>0.007578186625821592</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2568,7 +2568,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.0002569671842511667</v>
+        <v>0.0002440748436691079</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2579,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.0002753323832038745</v>
+        <v>0.0002475885711369014</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2590,7 +2590,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.001137667669048881</v>
+        <v>0.0009846301402225218</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2601,7 +2601,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>3.524175783198302E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2612,7 +2612,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1.302976642136855E-06</v>
+        <v>5.275525873325204E-06</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2623,7 +2623,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1.195463987357925E-05</v>
+        <v>3.396723788000551E-05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2634,7 +2634,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.0007793025224867023</v>
+        <v>0.000646710244335153</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.0001642292225767505</v>
+        <v>0.0001306332700669318</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2656,7 +2656,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>2.027275600724465E-05</v>
+        <v>1.672918740560314E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2667,7 +2667,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.0004746390478516105</v>
+        <v>0.0004701896820072354</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2678,7 +2678,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.0005573155273186359</v>
+        <v>0.0005526969138696389</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2689,7 +2689,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.0002068700861634909</v>
+        <v>0.0002060025512401486</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2700,7 +2700,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.001616701553004418</v>
+        <v>0.001634734364715959</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2711,7 +2711,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.01263330610383306</v>
+        <v>0.01278346189497334</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2722,7 +2722,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.002883784848410897</v>
+        <v>0.002920398731622115</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2733,7 +2733,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.001231189189025983</v>
+        <v>0.001347414790588642</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2744,7 +2744,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.007335881031451663</v>
+        <v>0.007327316724275679</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2755,7 +2755,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.01276727598266802</v>
+        <v>0.01275142578984585</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.006002314348787507</v>
+        <v>0.005991986779651554</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2777,7 +2777,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.0006460743212244324</v>
+        <v>0.0006513141715698211</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2788,7 +2788,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.0007482592302920921</v>
+        <v>0.0007547425348958481</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2799,7 +2799,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.002264725714704596</v>
+        <v>0.002285686753668964</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2810,7 +2810,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.001384322083985978</v>
+        <v>0.001397726765549984</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2821,7 +2821,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.002889963033680942</v>
+        <v>0.002899190543885813</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2832,7 +2832,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.001222666381428539</v>
+        <v>0.001240277320245853</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2843,7 +2843,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.0001580519110788714</v>
+        <v>0.0001618932178738564</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2854,7 +2854,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>3.387878182437021E-05</v>
+        <v>3.537618135767327E-05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.002388392003482842</v>
+        <v>0.002218586595917462</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2876,7 +2876,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.001127130185545333</v>
+        <v>0.001339997844244191</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2887,7 +2887,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.002305164921239111</v>
+        <v>0.002560422247113837</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>7.015993586989566E-05</v>
+        <v>7.129797518666968E-05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2909,7 +2909,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.001012912256879162</v>
+        <v>0.001010137368923793</v>
       </c>
     </row>
   </sheetData>
@@ -2944,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005992362833922016</v>
+        <v>0.00599248817209741</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2955,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.015546631944936</v>
+        <v>0.01547267959596255</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.002408767596051575</v>
+        <v>0.002386178994022714</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2977,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.002024995029898946</v>
+        <v>0.002003698848156432</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2988,7 +2988,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.006615181322171537</v>
+        <v>0.006541853412009857</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.0008494193034991326</v>
+        <v>0.0008068029554664236</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>9.099050221728078E-05</v>
+        <v>8.182186265415226E-05</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3021,7 +3021,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.0008173534709587926</v>
+        <v>0.0007074041783994289</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3032,7 +3032,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>2.497979002313855E-05</v>
+        <v>0.0004083664967424738</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3043,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>4.307907985889869E-07</v>
+        <v>1.74419731990838E-06</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3054,7 +3054,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3.952949860774879E-06</v>
+        <v>1.1231688130664E-05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3065,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.0006131433334477521</v>
+        <v>0.0005088217521898031</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3076,7 +3076,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.0002161724755822547</v>
+        <v>0.0001719506245123625</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3087,7 +3087,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1.804309585295982E-05</v>
+        <v>1.488925983395006E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.0003466143388131115</v>
+        <v>0.0003433651034434604</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.0007440962161009423</v>
+        <v>0.0007379297042398036</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3120,7 +3120,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.0001622177998150676</v>
+        <v>0.0001615375196806212</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3131,7 +3131,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.001542767030642267</v>
+        <v>0.001559975171190331</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3142,7 +3142,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.01138358136760331</v>
+        <v>0.01151888329506079</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3153,7 +3153,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.003368993092749406</v>
+        <v>0.003411767407115462</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3164,7 +3164,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.001627865181106358</v>
+        <v>0.001781537428708901</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3175,7 +3175,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.005012526866110534</v>
+        <v>0.005006674969241232</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3186,7 +3186,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.01008159844023027</v>
+        <v>0.01006908243603277</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3197,7 +3197,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.004696676997717475</v>
+        <v>0.00468859590535331</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.0003290841616276907</v>
+        <v>0.0003317531297497567</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.0003809750549521596</v>
+        <v>0.0003842760197514394</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3230,7 +3230,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.00199676525005188</v>
+        <v>0.002015246196327425</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3241,7 +3241,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.001205988624715104</v>
+        <v>0.001217666465986866</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3252,7 +3252,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.001472030431965976</v>
+        <v>0.001476730552898431</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3263,7 +3263,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.001208361787039536</v>
+        <v>0.001225766686587804</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3274,7 +3274,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.0001842157378817433</v>
+        <v>0.0001886929325323194</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3285,7 +3285,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>5.267604141323545E-05</v>
+        <v>5.500425622528837E-05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3296,7 +3296,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.002388392003482842</v>
+        <v>0.002218586595921224</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3307,7 +3307,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.001127130185545333</v>
+        <v>0.00133999784424077</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3318,7 +3318,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.002305164921239111</v>
+        <v>0.002560422247110949</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3329,7 +3329,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>7.015993586989566E-05</v>
+        <v>7.129797516824965E-05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3340,7 +3340,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.001012912256879162</v>
+        <v>0.001010137368933073</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2043467124708858</v>
+        <v>0.2043509866597045</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3386,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09865685810952576</v>
+        <v>0.09818756192652343</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3397,7 +3397,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.02014558113475847</v>
+        <v>0.01995776279333739</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.01614268770822882</v>
+        <v>0.01597437951903491</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3419,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.01437620567240054</v>
+        <v>0.0142186860377502</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3430,7 +3430,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.002074542319336177</v>
+        <v>0.001970863070817602</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3441,7 +3441,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.0005837451555180234</v>
+        <v>0.0005250358252544499</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.00166208919452389</v>
+        <v>0.001438972440382452</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3463,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>5.045163445809754E-05</v>
+        <v>0.0008254024190773684</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>9.896600767801768E-06</v>
+        <v>4.000000000015011E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3485,7 +3485,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>4.767964196366829E-05</v>
+        <v>0.0001352628231105752</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3496,7 +3496,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.0007929227223620234</v>
+        <v>0.0006572079396901133</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3507,7 +3507,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.0004497369565283095</v>
+        <v>0.0003575360775295646</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3518,7 +3518,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>5.074842379271604E-05</v>
+        <v>4.186400008827896E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3529,7 +3529,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.000940214310644496</v>
+        <v>0.0009313401529053501</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3540,7 +3540,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.0006367788124948195</v>
+        <v>0.0006314766335792557</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3551,7 +3551,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.0004131629646569433</v>
+        <v>0.0004114273611251735</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3562,7 +3562,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.01570810094833297</v>
+        <v>0.01588330958304736</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3573,7 +3573,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.01333565765445544</v>
+        <v>0.01349393284411162</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3584,7 +3584,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.01085640676570856</v>
+        <v>0.01099231419132059</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3595,7 +3595,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.002655161570091883</v>
+        <v>0.002905180592443312</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3606,7 +3606,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.02534626646851109</v>
+        <v>0.02531807136838145</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3617,7 +3617,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.02191761567841701</v>
+        <v>0.02189176089199022</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3628,7 +3628,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.01010238890781475</v>
+        <v>0.0100857710758231</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3639,7 +3639,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.004809909658028379</v>
+        <v>0.004849910971924606</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3650,7 +3650,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.003970859283417387</v>
+        <v>0.004006044327172624</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.00321693589556431</v>
+        <v>0.003247296707456224</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3672,7 +3672,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.002561888157477885</v>
+        <v>0.002587040406737787</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3683,7 +3683,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.008413745782505694</v>
+        <v>0.00844142803646325</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3694,7 +3694,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.001841672271530066</v>
+        <v>0.001868345493752502</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3705,7 +3705,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.0007422400053221719</v>
+        <v>0.0007603165083109379</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3716,7 +3716,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.0001447043905557509</v>
+        <v>0.0001511061969470055</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3727,7 +3727,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.001825688792084655</v>
+        <v>0.001695521063653057</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3738,7 +3738,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.0008422911966916927</v>
+        <v>0.001002123984928378</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3749,7 +3749,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.001721562695612085</v>
+        <v>0.001909856393761056</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3760,7 +3760,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.0002046660565759031</v>
+        <v>0.0002079894682213795</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3771,7 +3771,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.003008886632706154</v>
+        <v>0.003000911832477819</v>
       </c>
     </row>
   </sheetData>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2031598670577675</v>
+        <v>0.2031641072875664</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3817,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09652068870686997</v>
+        <v>0.09606685341667073</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3828,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.01999523032154727</v>
+        <v>0.01980953107773575</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.01602951435195446</v>
+        <v>0.01586298754605625</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3850,7 +3850,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.01414076210911467</v>
+        <v>0.01398687427451103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3861,7 +3861,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.002070387694384076</v>
+        <v>0.001966932157581858</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3872,7 +3872,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.0005823975878912021</v>
+        <v>0.0005238817963532719</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3883,7 +3883,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.001650807252009501</v>
+        <v>0.001429826209555868</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3894,7 +3894,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>5.040689795604975E-05</v>
+        <v>0.0008226140716891547</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3905,7 +3905,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>9.896587603034419E-06</v>
+        <v>4.000702861885011E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3916,7 +3916,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>4.769265417769252E-05</v>
+        <v>0.0001353454027731175</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3927,7 +3927,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.0007873481686081717</v>
+        <v>0.0006530229032338352</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3938,7 +3938,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.000448610079284736</v>
+        <v>0.0003567208553185605</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3949,7 +3949,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>5.071099675106795E-05</v>
+        <v>4.184427416207655E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3960,7 +3960,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.0009366781758708602</v>
+        <v>0.000927860775793999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3971,7 +3971,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.0006320959337515314</v>
+        <v>0.00062685309516152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3982,7 +3982,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.000412205001702641</v>
+        <v>0.0004104834675452768</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3993,7 +3993,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.01565269095306983</v>
+        <v>0.01582701419204241</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4004,7 +4004,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.01294757967703951</v>
+        <v>0.0130991702012013</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4015,7 +4015,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.01076614156818704</v>
+        <v>0.01090046551694865</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4026,7 +4026,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.002634924596014184</v>
+        <v>0.0028823073045925</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4037,7 +4037,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.02506424264793401</v>
+        <v>0.0250365312534126</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4048,7 +4048,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.02144051764725977</v>
+        <v>0.02141552278733414</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4059,7 +4059,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.009949808667262829</v>
+        <v>0.009933576471418338</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4070,7 +4070,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.004800018706149194</v>
+        <v>0.004839889962632051</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4081,7 +4081,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.003960506814214289</v>
+        <v>0.00399554451386551</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4092,7 +4092,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.003182780868457566</v>
+        <v>0.003212667281482943</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4103,7 +4103,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.00254335055107494</v>
+        <v>0.002568227088889727</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4114,7 +4114,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.00835791393497259</v>
+        <v>0.008385256941604743</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4125,7 +4125,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.00182968744035216</v>
+        <v>0.001856132162999346</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4136,7 +4136,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.0007413895301203821</v>
+        <v>0.0007594387508626044</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4147,7 +4147,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.0001447706685851495</v>
+        <v>0.000151174258449116</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4158,7 +4158,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.001797015186757374</v>
+        <v>0.001669794262250561</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4169,7 +4169,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.0008331456280349688</v>
+        <v>0.0009904277001560849</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4180,7 +4180,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.001748639888470243</v>
+        <v>0.001941357620505501</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4191,7 +4191,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.0002044684722692271</v>
+        <v>0.0002077918292124062</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4202,7 +4202,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.002993194695547659</v>
+        <v>0.002985283928183219</v>
       </c>
     </row>
   </sheetData>
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.838290027606352</v>
+        <v>3.838253421901074</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4285,7 +4285,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2.803203769509619E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4299,7 +4299,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>9.598697882996892E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4313,7 +4313,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>2.181555216437552E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4327,7 +4327,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2.244769287908234E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4341,7 +4341,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>2.442270639809764E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4355,7 +4355,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>2.992824795609542E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4369,7 +4369,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>3.047020272996642E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4383,7 +4383,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>3.041918021496872E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4397,7 +4397,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>3.004911056800488E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4411,7 +4411,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>3.626612369480864E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4425,7 +4425,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>3.828981566955326E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4439,7 +4439,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>3.907493467542856E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4453,7 +4453,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>4.307019275586738E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4467,7 +4467,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>4.976589401217825E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4481,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>5.231804712033205E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4509,7 +4509,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>4.993430433428096E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4523,7 +4523,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>1.198762653051436E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4537,7 +4537,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>1.776066480126354E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4551,7 +4551,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>5.730064908133524E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4565,7 +4565,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>2.300474179425045E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4579,7 +4579,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>3.360512160083624E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4593,7 +4593,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>2.342926225099996E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4607,7 +4607,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>2.542751668380681E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4621,7 +4621,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>3.205168389883001E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4635,7 +4635,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>3.663847703015835E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4649,7 +4649,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>4.222579864292728E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4663,7 +4663,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>5.087301103866649E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4677,7 +4677,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>5.281841877039872E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4691,7 +4691,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>5.289818113252367E-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.387928162878493</v>
+        <v>2.38807649275221</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4746,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>-1.667943197066739E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4760,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>-2.686811011990833E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4774,7 +4774,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>-1.91657986595742E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4788,7 +4788,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>-1.4399943113686E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4802,7 +4802,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>-8.29308709980991E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4816,7 +4816,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>-8.157318536456978E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4830,7 +4830,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>-7.742213642313311E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4844,7 +4844,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>-6.046358071878918E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4858,7 +4858,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>-5.969943364844866E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4872,7 +4872,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>-5.974635363594694E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4886,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>-6.065385987978011E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4900,7 +4900,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>-4.409742441808473E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4914,7 +4914,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>-3.955391720324959E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4928,7 +4928,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>-3.77549398384281E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4942,7 +4942,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>-2.946810964387827E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4956,7 +4956,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>-1.713030384955086E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4970,7 +4970,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>-1.216908828502953E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4984,7 +4984,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>-1.057971945157391E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4998,7 +4998,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>-1.891097179725978E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5012,7 +5012,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>-1.404972844596455E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5026,7 +5026,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>-1.094544942007523E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5040,7 +5040,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>-1.642142501793002E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5054,7 +5054,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>-7.138951182396701E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5068,7 +5068,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>-3.505115464279476E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5082,7 +5082,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>-7.511075398828339E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5096,7 +5096,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>-6.574169937159113E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5110,7 +5110,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>-3.942213847690199E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5124,7 +5124,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>-2.502747529113196E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5138,7 +5138,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>-1.081336004202208E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5152,7 +5152,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>-8.175646834124773E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5166,7 +5166,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>-8.190600435139361E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5180,7 +5180,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>-9.600854726875557E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5226,7 +5226,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.9970917718211421</v>
+        <v>0.9970917494058404</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5237,7 +5237,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.9862379232012113</v>
+        <v>0.9862651046555689</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5248,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.9825507777536385</v>
+        <v>0.9825956492731742</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5259,7 +5259,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.9791004801475259</v>
+        <v>0.9791637555657355</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5270,7 +5270,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.9710498666500924</v>
+        <v>0.9711491459933342</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5281,7 +5281,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.9700770328204671</v>
+        <v>0.9701801774981346</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5292,7 +5292,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.9689566811538515</v>
+        <v>0.9691133628003634</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5303,7 +5303,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.965662535619247</v>
+        <v>0.9660285698375002</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5314,7 +5314,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.9652343042509942</v>
+        <v>0.9643954864436679</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5325,7 +5325,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.9652336622599199</v>
+        <v>0.9644802123232236</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5336,7 +5336,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.9653653638580215</v>
+        <v>0.9647745810791857</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5347,7 +5347,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.9619659323434507</v>
+        <v>0.9616978797147122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.9607600080882137</v>
+        <v>0.9606008647114818</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5369,7 +5369,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.9604056617416945</v>
+        <v>0.9603745249640455</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5380,7 +5380,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.958597923317939</v>
+        <v>0.9585789233029866</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.9550666489787051</v>
+        <v>0.9550632200541423</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5402,7 +5402,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.9539587938502978</v>
+        <v>0.9539670415279077</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5413,7 +5413,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.995331608102122</v>
+        <v>0.9953231792294082</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5424,7 +5424,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.980742223102341</v>
+        <v>0.9806561096790971</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5435,7 +5435,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.9766565401142099</v>
+        <v>0.9765504724900502</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5446,7 +5446,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.972927505756116</v>
+        <v>0.9726985501286373</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.9807357196709632</v>
+        <v>0.9807660788976463</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5468,7 +5468,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.9700027660890352</v>
+        <v>0.9700395223946182</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5479,7 +5479,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.962649735305704</v>
+        <v>0.962692737705989</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.9700509341414079</v>
+        <v>0.9701453206709861</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5501,7 +5501,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.9687855938614625</v>
+        <v>0.9688731145667422</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5512,7 +5512,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.9636289483804504</v>
+        <v>0.9636931984726568</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5523,7 +5523,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.960136249836586</v>
+        <v>0.9601827491854393</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5534,7 +5534,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.9569453163199354</v>
+        <v>0.9569827847474104</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5545,7 +5545,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.9538265346071042</v>
+        <v>0.9538497692100363</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5556,7 +5556,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.9532799200912661</v>
+        <v>0.9532990179681777</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5567,7 +5567,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.9534982074607933</v>
+        <v>0.9535136870546177</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5613,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>12.62318183125566</v>
+        <v>12.62318154747794</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5624,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>12.48577210772734</v>
+        <v>12.4861162249395</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5635,7 +5635,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>12.43909284636106</v>
+        <v>12.43966091979838</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5646,7 +5646,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>12.39541207866768</v>
+        <v>12.39621314546221</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5657,7 +5657,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>12.29349131179017</v>
+        <v>12.29474818827561</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5668,7 +5668,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>12.28117523550711</v>
+        <v>12.28248104712638</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5679,7 +5679,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>12.26699158340776</v>
+        <v>12.2689751730526</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5690,7 +5690,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>12.22528770093967</v>
+        <v>12.22992169414275</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>12.21986629181759</v>
+        <v>12.20924685837684</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5712,7 +5712,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>12.21985816421059</v>
+        <v>12.21031948801201</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5723,7 +5723,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>12.22152550644255</v>
+        <v>12.21404619646249</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5734,7 +5734,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>12.17848870346809</v>
+        <v>12.17509515718826</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5745,7 +5745,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>12.16322170239679</v>
+        <v>12.16120694724736</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5756,7 +5756,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>12.15873567764985</v>
+        <v>12.15834148604482</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5767,7 +5767,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>12.13584970920511</v>
+        <v>12.13560916901581</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5778,7 +5778,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>12.09114377607041</v>
+        <v>12.09110036588544</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5789,7 +5789,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>12.07711833014477</v>
+        <v>12.07722274574331</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5800,7 +5800,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>12.60089815857286</v>
+        <v>12.60079144904431</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5811,7 +5811,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>12.41619654447564</v>
+        <v>12.41510634853737</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5822,7 +5822,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>12.3644717978459</v>
+        <v>12.36312898172404</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5833,7 +5833,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>12.31726222287243</v>
+        <v>12.31436364462855</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5844,7 +5844,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>12.41611421103439</v>
+        <v>12.4164985588442</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5855,7 +5855,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>12.28023501868719</v>
+        <v>12.28070035351587</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5866,7 +5866,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>12.18714564897021</v>
+        <v>12.18769005935782</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5877,7 +5877,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>12.28084482623022</v>
+        <v>12.28203975969469</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5888,7 +5888,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>12.26482561828612</v>
+        <v>12.26593363041496</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5899,7 +5899,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>12.1995424864965</v>
+        <v>12.20035589266383</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5910,7 +5910,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>12.15532492293118</v>
+        <v>12.15591360468766</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5921,7 +5921,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>12.11492770461038</v>
+        <v>12.11540205490222</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5932,7 +5932,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>12.07544392812594</v>
+        <v>12.07573807819906</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5943,7 +5943,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>12.06852378835543</v>
+        <v>12.06876556747713</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5954,7 +5954,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>12.07128730645364</v>
+        <v>12.07148327811146</v>
       </c>
     </row>
   </sheetData>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-2.325854585501287E-36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6000,7 +6000,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.01425760877579083</v>
+        <v>0.01426312912868246</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6011,7 +6011,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.05257448432690866</v>
+        <v>0.05375167117532155</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6022,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.05738983199307433</v>
+        <v>0.05940340983805826</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6033,7 +6033,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.05976185169206283</v>
+        <v>0.06265280977895347</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6044,7 +6044,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.05058338975704033</v>
+        <v>-0.04484465767333146</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6055,7 +6055,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.146378091239973</v>
+        <v>-0.1374465887728646</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6066,7 +6066,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.1651011036077066</v>
+        <v>-0.1542506677279212</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6077,7 +6077,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-0.1937236061074427</v>
+        <v>-0.1707705959169961</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6088,7 +6088,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-0.2175737140619744</v>
+        <v>-0.2730928667355143</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6099,7 +6099,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.2200728643723085</v>
+        <v>-0.2731051653647267</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6110,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>-0.2270034300222732</v>
+        <v>-0.2753030656640015</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6121,7 +6121,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.2261867072795861</v>
+        <v>-0.2543559386574159</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6132,7 +6132,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>-0.2410545856423535</v>
+        <v>-0.2575223350474408</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6143,7 +6143,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.2355855555816437</v>
+        <v>-0.2429932626798253</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6154,7 +6154,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>-0.2148316268997193</v>
+        <v>-0.2212350520789251</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.2120379883155652</v>
+        <v>-0.2156991879159777</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6176,7 +6176,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.1792471917363673</v>
+        <v>-0.1818627399016499</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6187,7 +6187,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-0.0001228222954355021</v>
+        <v>-0.0007465673879115523</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6198,7 +6198,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.08176122957194538</v>
+        <v>-0.08797843403184298</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6209,7 +6209,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>-0.131819965398107</v>
+        <v>-0.139982347372728</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6220,7 +6220,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>-0.1923265979420181</v>
+        <v>-0.2129558420986569</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6231,7 +6231,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.04448669543270085</v>
+        <v>0.04574994851852528</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6242,7 +6242,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>-0.01247887393913063</v>
+        <v>-0.01100422948611766</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6253,7 +6253,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-0.02324388725288798</v>
+        <v>-0.02155973391664786</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6264,7 +6264,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.03990224412498568</v>
+        <v>-0.03440222423393269</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6275,7 +6275,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-0.02430123455323817</v>
+        <v>-0.01913602638178322</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6286,7 +6286,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.02858642195014394</v>
+        <v>-0.02531058050620711</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6297,7 +6297,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>-0.02044441656532883</v>
+        <v>-0.01860389915555167</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6308,7 +6308,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.04882496602263466</v>
+        <v>0.05012090546358986</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6319,7 +6319,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>-0.08482871225839375</v>
+        <v>-0.08516871154284254</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6330,7 +6330,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>-0.1239247918695655</v>
+        <v>-0.1248601565131075</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6341,7 +6341,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>-0.1507125134591239</v>
+        <v>-0.152474187828279</v>
       </c>
     </row>
   </sheetData>
@@ -6376,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.3838290027606049</v>
+        <v>0.3838253421901032</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6387,7 +6387,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2715521038790987</v>
+        <v>0.270584870783252</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6398,7 +6398,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1268100494815848</v>
+        <v>0.125942466385551</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6409,7 +6409,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1145887911793234</v>
+        <v>0.1137214802265161</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6420,7 +6420,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1084575257619931</v>
+        <v>0.107590455797302</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6431,7 +6431,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.04546989869345507</v>
+        <v>0.04416365997999198</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6442,7 +6442,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.02487938472291936</v>
+        <v>0.02357371804533121</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6453,7 +6453,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.03731092590854944</v>
+        <v>0.03366043110257889</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6464,7 +6464,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.007290091416351344</v>
+        <v>0.02919416928163571</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6475,7 +6475,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.001081900403414299</v>
+        <v>-0.006211558666777292</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6486,7 +6486,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.003568207602558299</v>
+        <v>-0.01086240491864679</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6497,7 +6497,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.0227793634928691</v>
+        <v>0.01879272423698122</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6508,7 +6508,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.01655655197955894</v>
+        <v>0.01256997660093944</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6519,7 +6519,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.004101586763946494</v>
+        <v>0.0001153531976473277</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6530,7 +6530,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.02167308990524377</v>
+        <v>0.02132789564514088</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6541,7 +6541,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.01542181985898372</v>
+        <v>0.01507673302830798</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6552,7 +6552,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.009147333746953049</v>
+        <v>0.008802354482527697</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6563,7 +6563,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.1022462318571556</v>
+        <v>0.1032098063978398</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6574,7 +6574,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.09320402542486153</v>
+        <v>0.09416756959796378</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6585,7 +6585,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.08403313210590559</v>
+        <v>0.0849963145064434</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6596,7 +6596,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.04178499602318922</v>
+        <v>0.04509395679555905</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6607,7 +6607,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.1356127490819799</v>
+        <v>0.1355132680518984</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6618,7 +6618,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.1264320098242597</v>
+        <v>0.126332700166892</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6629,7 +6629,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.08313765828088013</v>
+        <v>0.08303945586587883</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6640,7 +6640,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.05681057068274559</v>
+        <v>0.05725016186437717</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6651,7 +6651,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.05062712719333265</v>
+        <v>0.05106706979506458</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6662,7 +6662,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.04443490405185328</v>
+        <v>0.04487517055819534</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6673,7 +6673,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.03820948066473024</v>
+        <v>0.03865004007251167</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6684,7 +6684,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.06523037816765813</v>
+        <v>0.06557443600467501</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6695,7 +6695,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.04427712456648679</v>
+        <v>0.04462058066886472</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6706,7 +6706,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.02856188269689337</v>
+        <v>0.02890575995537598</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6717,7 +6717,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.006555422459483574</v>
+        <v>0.006899907070847366</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6728,7 +6728,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.03304247184071393</v>
+        <v>0.03069627897650685</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6739,7 +6739,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.02381452508983434</v>
+        <v>0.02745563289333116</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6750,7 +6750,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>-0.03254841824594304</v>
+        <v>-0.03585669542036307</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6761,7 +6761,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>-0.0002738666084702857</v>
+        <v>-0.0006185771414528099</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6772,7 +6772,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.03951651759512522</v>
+        <v>0.03941964903121022</v>
       </c>
     </row>
   </sheetData>
@@ -6807,7 +6807,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.238792816287852</v>
+        <v>-0.2388076492752221</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6818,7 +6818,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>-0.1596642079408607</v>
+        <v>-0.1598280287823448</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6829,7 +6829,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>-0.06805102986653949</v>
+        <v>-0.06823488048595222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6840,7 +6840,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>-0.05992117476134969</v>
+        <v>-0.06010584563078596</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6851,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>-0.05686351665127486</v>
+        <v>-0.05704870916736096</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6862,7 +6862,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.01151399847804985</v>
+        <v>-0.01180145059557635</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6873,7 +6873,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.001152892386130193</v>
+        <v>-0.001444663965693434</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6884,7 +6884,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.01944709863421042</v>
+        <v>-0.01997830144174813</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6895,7 +6895,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.0009787526801508517</v>
+        <v>0.005672385455358628</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6906,7 +6906,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.003074384528978569</v>
+        <v>0.002103468359325344</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6917,7 +6917,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.006200330495112816</v>
+        <v>0.005236156235428308</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6928,7 +6928,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>-0.01821921226090014</v>
+        <v>-0.01878587078280471</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6939,7 +6939,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.01455623090220413</v>
+        <v>-0.01511881318614716</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6950,7 +6950,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>-0.006177011039805044</v>
+        <v>-0.006734629223836178</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6961,7 +6961,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.02344383376239321</v>
+        <v>-0.02355634870114778</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6972,7 +6972,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>-0.02133399617020347</v>
+        <v>-0.02144577369865192</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6983,7 +6983,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.01921666486491953</v>
+        <v>-0.01932803562890241</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6994,7 +6994,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.07311343666949763</v>
+        <v>-0.07296461692672876</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7005,7 +7005,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-0.06909454984071421</v>
+        <v>-0.06894570392070401</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7016,7 +7016,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.06500289582339319</v>
+        <v>-0.06485271468681462</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7027,7 +7027,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>-0.03221205790490175</v>
+        <v>-0.03182629014465643</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7038,7 +7038,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>-0.08756570969954994</v>
+        <v>-0.08754600627604736</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7049,7 +7049,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>-0.08247460629473154</v>
+        <v>-0.08245527961947735</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7060,7 +7060,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>-0.06184667114248763</v>
+        <v>-0.06182924769945083</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7071,7 +7071,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-0.04328442897429949</v>
+        <v>-0.04318300766164825</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7082,7 +7082,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.04070293003652584</v>
+        <v>-0.04060236114582361</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7093,7 +7093,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-0.03811974632349537</v>
+        <v>-0.038019975750964</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7104,7 +7104,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.03604114827179186</v>
+        <v>-0.03594187628348651</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7115,7 +7115,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>-0.06979903534106328</v>
+        <v>-0.06968531180395179</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7126,7 +7126,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>-0.00711735943896874</v>
+        <v>-0.007006565117145735</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7137,7 +7137,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.0002447771551322905</v>
+        <v>0.000355484548738294</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7148,7 +7148,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.01078249852995328</v>
+        <v>0.01089335322054744</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7159,7 +7159,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>-0.02867402764906594</v>
+        <v>-0.02890786996750515</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7170,7 +7170,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>-0.01833373198726667</v>
+        <v>-0.01788946658935779</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7181,7 +7181,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.0280697154231406</v>
+        <v>0.02767965774861103</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7192,7 +7192,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>-0.01499411595695577</v>
+        <v>-0.0151050944168964</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7203,7 +7203,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>-0.04105298078696826</v>
+        <v>-0.04103777196672408</v>
       </c>
     </row>
   </sheetData>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2043467124708843</v>
+        <v>0.2043509866597073</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7249,7 +7249,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09923320441854723</v>
+        <v>0.09876117108123923</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7260,7 +7260,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.02071173131541864</v>
+        <v>0.02051750375420783</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7271,7 +7271,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.01672113824871879</v>
+        <v>0.01654528774390177</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7282,7 +7282,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.0149964944203632</v>
+        <v>0.01483026139633332</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7293,7 +7293,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.002200083848145602</v>
+        <v>0.002089703098988175</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7304,7 +7304,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.0006203129450450304</v>
+        <v>0.0005578072364545472</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7315,7 +7315,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.001770294837441974</v>
+        <v>0.001532157150508816</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7326,7 +7326,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>5.410338966766203E-05</v>
+        <v>0.0008844754767989664</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7337,7 +7337,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1.06223487149308E-05</v>
+        <v>4.300804020949894E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7348,7 +7348,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>5.117620374358078E-05</v>
+        <v>0.0001454091727384567</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7359,7 +7359,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.0008508390965479913</v>
+        <v>0.0007060754253154569</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7370,7 +7370,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.0004860032715301193</v>
+        <v>0.0003865828239057824</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7381,7 +7381,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>5.497847936805446E-05</v>
+        <v>4.536853714275574E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7392,7 +7392,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.001019336167519507</v>
+        <v>0.001009780696780086</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7403,7 +7403,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.0006929719203532009</v>
+        <v>0.0006872290883406629</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7414,7 +7414,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.0004529539232087787</v>
+        <v>0.0004510544057081964</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7425,7 +7425,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.01579986655061186</v>
+        <v>0.01597609945994385</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7436,7 +7436,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.01346104717308918</v>
+        <v>0.01362104125310873</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7447,7 +7447,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.01128694375695549</v>
+        <v>0.01143024808192762</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7458,7 +7458,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.002783602567126682</v>
+        <v>0.003046377683851602</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7469,7 +7469,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.0260585712287579</v>
+        <v>0.0260281490329914</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7480,7 +7480,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.02278711379167267</v>
+        <v>0.02275882426858402</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7491,7 +7491,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.01073688095583541</v>
+        <v>0.01071840710158128</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7502,7 +7502,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.00510098273293041</v>
+        <v>0.005142353184203357</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7513,7 +7513,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.004219834521408199</v>
+        <v>0.004256397348069884</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7524,7 +7524,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.003427575757865045</v>
+        <v>0.003459299488731013</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7535,7 +7535,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.00275892878141768</v>
+        <v>0.002785644068384208</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7546,7 +7546,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.009126907570438691</v>
+        <v>0.009156049338545202</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7557,7 +7557,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.002011120565259665</v>
+        <v>0.002040088173967467</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7568,7 +7568,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.0008158410590467717</v>
+        <v>0.0008356693278622094</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7579,7 +7579,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.0001592358381707463</v>
+        <v>0.0001662738619739408</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7590,7 +7590,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.001914004806963771</v>
+        <v>0.001777926489061723</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7601,7 +7601,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.0009032573338352745</v>
+        <v>0.001073844792425116</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7612,7 +7612,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.001847308454248935</v>
+        <v>0.002051866059548929</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7623,7 +7623,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.0002248985162498706</v>
+        <v>0.0002285465150232827</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7634,7 +7634,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.003246902394341027</v>
+        <v>0.003238007457736637</v>
       </c>
     </row>
   </sheetData>
@@ -7669,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-4.059382043960542E-38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7680,7 +7680,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.0002488422165987879</v>
+        <v>0.0002489385649326189</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7691,7 +7691,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.000917597854042711</v>
+        <v>0.0009381436404586912</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7702,7 +7702,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.001001641525445527</v>
+        <v>0.001036785088585708</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7713,7 +7713,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.001043041079115041</v>
+        <v>0.001093497816268439</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7724,7 +7724,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.0008828466980799283</v>
+        <v>-0.0007826869283293735</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7735,7 +7735,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.002554779644922199</v>
+        <v>-0.00239889551972116</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7746,7 +7746,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.002881557856630768</v>
+        <v>-0.002692182025251985</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7757,7 +7757,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-0.003381114765411471</v>
+        <v>-0.002980509164344367</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7768,7 +7768,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-0.003797377676174139</v>
+        <v>-0.004766369688244823</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7779,7 +7779,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.003840996077591708</v>
+        <v>-0.004766584339818061</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7790,7 +7790,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>-0.003961957267209213</v>
+        <v>-0.004804944936670975</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7801,7 +7801,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.003947702766273403</v>
+        <v>-0.004439348601572633</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7812,7 +7812,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>-0.004207196196489719</v>
+        <v>-0.004494612644001829</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7823,7 +7823,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.004111743615039787</v>
+        <v>-0.004241032493926412</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7834,7 +7834,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>-0.003749519226816119</v>
+        <v>-0.003861280079598369</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7845,7 +7845,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.003700761035411878</v>
+        <v>-0.003764661023011776</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7856,7 +7856,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.003128453670753182</v>
+        <v>-0.00317410359798186</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7867,7 +7867,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-2.143653450206714E-06</v>
+        <v>-1.30300590070703E-05</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7878,7 +7878,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.001427002656509401</v>
+        <v>-0.00153551334460429</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7889,7 +7889,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>-0.002300692416061964</v>
+        <v>-0.002443152856324538</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7900,7 +7900,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>-0.003356732373247566</v>
+        <v>-0.003716780605978713</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7911,7 +7911,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.0007764393086325534</v>
+        <v>0.0007984872342661682</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7922,7 +7922,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>-0.0002177974371791439</v>
+        <v>-0.0001920600361777968</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7933,7 +7933,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-0.0004056823635252351</v>
+        <v>-0.0003762883426993979</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7944,7 +7944,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.0006964255389155639</v>
+        <v>-0.0006004320828915093</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7955,7 +7955,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-0.0004241365552534193</v>
+        <v>-0.0003339866661106146</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7966,7 +7966,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.0004989271843943901</v>
+        <v>-0.0004417529654244071</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7977,7 +7977,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>-0.0003568223827142585</v>
+        <v>-0.0003246992939733694</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7988,7 +7988,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.0008521564142693351</v>
+        <v>0.0008747748244204579</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7999,7 +7999,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>-0.001480540329135846</v>
+        <v>-0.001486474436103902</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8010,7 +8010,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>-0.002162895642972616</v>
+        <v>-0.002179220835709169</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8021,7 +8021,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>-0.002630429583817981</v>
+        <v>-0.00266117660190773</v>
       </c>
     </row>
   </sheetData>
@@ -8056,7 +8056,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-2.325854585501287E-36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8067,7 +8067,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.01425760877579082</v>
+        <v>0.01426312912868246</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8078,7 +8078,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.05257448432690866</v>
+        <v>0.05375167117532155</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8089,7 +8089,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.05738983199307433</v>
+        <v>0.05940340983805826</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8100,7 +8100,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.05976185169206283</v>
+        <v>0.06265280977895347</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8111,7 +8111,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.05058338975704033</v>
+        <v>-0.04484465767333146</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8122,7 +8122,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.146378091239973</v>
+        <v>-0.1374465887728646</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8133,7 +8133,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.1651011036077066</v>
+        <v>-0.1542506677279212</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8144,7 +8144,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-0.1937236061074427</v>
+        <v>-0.1707705959169961</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8155,7 +8155,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-0.2175737140619744</v>
+        <v>-0.2730928667355143</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8166,7 +8166,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.2200728643723085</v>
+        <v>-0.2731051653647267</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8177,7 +8177,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>-0.2270034300222732</v>
+        <v>-0.2753030656640015</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8188,7 +8188,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.2261867072795861</v>
+        <v>-0.2543559386574159</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8199,7 +8199,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>-0.2410545856423535</v>
+        <v>-0.2575223350474408</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8210,7 +8210,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.2355855555816437</v>
+        <v>-0.2429932626798253</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8221,7 +8221,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>-0.2148316268997193</v>
+        <v>-0.2212350520789251</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8232,7 +8232,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.2120379883155652</v>
+        <v>-0.2156991879159777</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8243,7 +8243,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.1792471917363673</v>
+        <v>-0.1818627399016499</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8254,7 +8254,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-0.0001228222954355021</v>
+        <v>-0.0007465673879115523</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8265,7 +8265,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.08176122957194538</v>
+        <v>-0.08797843403184299</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8276,7 +8276,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>-0.131819965398107</v>
+        <v>-0.139982347372728</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8287,7 +8287,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>-0.1923265979420181</v>
+        <v>-0.2129558420986569</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8298,7 +8298,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.04448669543270085</v>
+        <v>0.04574994851852529</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8309,7 +8309,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>-0.01247887393913063</v>
+        <v>-0.01100422948611766</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8320,7 +8320,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-0.02324388725288798</v>
+        <v>-0.02155973391664786</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8331,7 +8331,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.03990224412498568</v>
+        <v>-0.03440222423393269</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8342,7 +8342,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-0.02430123455323817</v>
+        <v>-0.01913602638178322</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8353,7 +8353,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.02858642195014394</v>
+        <v>-0.02531058050620711</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8364,7 +8364,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>-0.02044441656532883</v>
+        <v>-0.01860389915555167</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8375,7 +8375,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.04882496602263466</v>
+        <v>0.05012090546358986</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8386,7 +8386,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>-0.08482871225839375</v>
+        <v>-0.08516871154284254</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8397,7 +8397,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>-0.1239247918695655</v>
+        <v>-0.1248601565131075</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8408,7 +8408,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>-0.150712513459124</v>
+        <v>-0.152474187828279</v>
       </c>
     </row>
   </sheetData>
@@ -8449,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.3838290027606351</v>
+        <v>0.3838253421901074</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8491,7 +8491,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2.803203769509619E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8505,7 +8505,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>9.598697882996893E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8519,7 +8519,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>2.181555216437552E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8533,7 +8533,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2.244769287908234E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8547,7 +8547,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>2.442270639809763E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8561,7 +8561,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>2.992824795609542E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8575,7 +8575,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>3.047020272996642E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8589,7 +8589,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>3.041918021496872E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8603,7 +8603,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>3.004911056800488E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8617,7 +8617,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>3.626612369480864E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8631,7 +8631,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>3.828981566955326E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8645,7 +8645,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>3.907493467542856E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8659,7 +8659,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>4.307019275586738E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8673,7 +8673,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>4.976589401217825E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8687,7 +8687,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>5.231804712033205E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8715,7 +8715,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>4.993430433428096E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8729,7 +8729,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>1.198762653051436E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8743,7 +8743,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>1.776066480126354E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8757,7 +8757,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>5.730064908133524E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8771,7 +8771,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>2.300474179425045E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8785,7 +8785,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>3.360512160083624E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8799,7 +8799,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>2.342926225099996E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -8813,7 +8813,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>2.542751668380681E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -8827,7 +8827,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>3.205168389883002E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8841,7 +8841,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>3.663847703015836E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -8855,7 +8855,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>4.222579864292728E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -8869,7 +8869,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>5.08730110386665E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8883,7 +8883,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>5.281841877039872E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8897,7 +8897,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>5.289818113252367E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8938,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.2387928162878493</v>
+        <v>0.238807649275221</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8952,7 +8952,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>-1.667943197066739E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8966,7 +8966,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>-2.686811011990833E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8980,7 +8980,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>-1.91657986595742E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8994,7 +8994,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>-1.4399943113686E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9008,7 +9008,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>-8.29308709980991E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9022,7 +9022,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>-8.157318536456978E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9036,7 +9036,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>-7.74221364231331E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9050,7 +9050,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>-6.046358071878918E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9064,7 +9064,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>-5.969943364844865E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9078,7 +9078,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>-5.974635363594694E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9092,7 +9092,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>-6.065385987978011E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9106,7 +9106,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>-4.409742441808473E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9120,7 +9120,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>-3.95539172032496E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9134,7 +9134,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>-3.77549398384281E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9148,7 +9148,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>-2.946810964387827E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9162,7 +9162,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>-1.713030384955086E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9176,7 +9176,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>-1.216908828502953E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9190,7 +9190,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>-1.057971945157391E-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9204,7 +9204,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>-1.891097179725978E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9218,7 +9218,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>-1.404972844596455E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9232,7 +9232,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>-1.094544942007523E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9246,7 +9246,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>-1.642142501793002E-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9260,7 +9260,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>-7.138951182396702E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9274,7 +9274,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>-3.505115464279476E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -9288,7 +9288,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>-7.511075398828339E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9302,7 +9302,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>-6.574169937159113E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -9316,7 +9316,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>-3.942213847690199E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -9330,7 +9330,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>-2.502747529113196E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -9344,7 +9344,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>-1.081336004202208E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -9358,7 +9358,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>-8.175646834124773E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9372,7 +9372,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>-8.190600435139361E-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9386,7 +9386,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>-9.600854726875557E-10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9509,7 +9509,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">

--- a/Optimal_Power_Flow/Distribution/Matpower/Snapshot/Output_data/Variables/33bus_MINLP_Opt_problem_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/Matpower/Snapshot/Output_data/Variables/33bus_MINLP_Opt_problem_Variables.xlsx
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.3838253421901032</v>
+        <v>0.3838251158127152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2697582621641895</v>
+        <v>0.269758111617894</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.1241494702470188</v>
+        <v>0.1241493901807019</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -822,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1116809393930237</v>
+        <v>0.1116808656448152</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -833,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.1052875289700322</v>
+        <v>0.1052874617899102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -844,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.04289845788592715</v>
+        <v>0.04289842888006009</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -855,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.02287405040155399</v>
+        <v>0.02287402809643677</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.03267277928043315</v>
+        <v>0.03267274876256547</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -877,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.02818594410034981</v>
+        <v>0.02818589793026124</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -888,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-0.006000000000012879</v>
+        <v>-0.005999993008676836</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -899,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.01050052755259503</v>
+        <v>-0.01050051357447931</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -910,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.01821761847128108</v>
+        <v>0.01821760937322859</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -921,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.01215294744684812</v>
+        <v>0.01215294556013529</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -932,7 +932,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.0001398841198383817</v>
+        <v>0.0001398894470473009</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -943,7 +943,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.02057852768309193</v>
+        <v>0.02057851705663747</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -954,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.01453150871488647</v>
+        <v>0.01453150546270779</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.008476239023501489</v>
+        <v>0.008476243270602526</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -976,7 +976,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.1028915323461617</v>
+        <v>0.1028914616237849</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -987,7 +987,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.0937280589096855</v>
+        <v>0.09372799250877321</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -998,7 +998,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.08344971272019294</v>
+        <v>0.08344965382396131</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1009,7 +1009,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.04411232645144134</v>
+        <v>0.04411228933315237</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.1335709460227765</v>
+        <v>0.1335708839942144</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1031,7 +1031,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.1238382143503482</v>
+        <v>0.1238381588509658</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1042,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.08056307177136721</v>
+        <v>0.0805630240308088</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1053,7 +1053,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.0556312524215289</v>
+        <v>0.05563122180326823</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1064,7 +1064,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.04956612100437693</v>
+        <v>0.04956609716595206</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1075,7 +1075,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.04349064675088245</v>
+        <v>0.04349062977681812</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.03726207807551637</v>
+        <v>0.03726206830158134</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1097,7 +1097,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.06298516475547847</v>
+        <v>0.06298512244977181</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1108,7 +1108,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.04269524570108813</v>
+        <v>0.04269521107368205</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.02757121796906253</v>
+        <v>0.02757119108267318</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1130,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.006555028647275078</v>
+        <v>0.006555009338884378</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.0300453463955849</v>
+        <v>0.03004533118731921</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1152,7 +1152,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.02657431626641243</v>
+        <v>0.02657429286374727</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1163,7 +1163,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>-0.03472154274767397</v>
+        <v>-0.03472151269669808</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>-0.0005443612316211053</v>
+        <v>-0.0005443494620352958</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1185,7 +1185,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.0379638730934021</v>
+        <v>0.0379638331169221</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2388076492752162</v>
+        <v>0.2388075557888243</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1231,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.159430366996629</v>
+        <v>0.1594303095572513</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1242,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.06741418122859599</v>
+        <v>0.06741415309457466</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1253,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.0591755633291875</v>
+        <v>0.05917553857791447</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1264,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.05597519344437174</v>
+        <v>0.055975169220984</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1275,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.01142739610877896</v>
+        <v>0.01142739286655825</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1286,7 +1286,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.0013467158132352</v>
+        <v>0.001346713289626322</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1297,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.01927334777547873</v>
+        <v>0.01927333594516245</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1308,7 +1308,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-0.005563719461774141</v>
+        <v>-0.005563722442717633</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-0.001999999999998892</v>
+        <v>-0.001999995155365752</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1330,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.005000174419734549</v>
+        <v>-0.005000168532539817</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1341,7 +1341,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.01803680450980583</v>
+        <v>0.0180367973066442</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1352,7 +1352,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.0144859223345879</v>
+        <v>0.01448591626364504</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1363,7 +1363,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.006468727272137542</v>
+        <v>0.006468723845552304</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1374,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.02253584591936963</v>
+        <v>0.02253583330700515</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1385,7 +1385,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.02050150940902729</v>
+        <v>0.02050150230706915</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1396,7 +1396,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.0184277164386053</v>
+        <v>0.01842771184555225</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1407,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.07277803346138256</v>
+        <v>0.07277799861874001</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1418,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.06862203594425154</v>
+        <v>0.0686220013407981</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1429,7 +1429,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.06347014761474767</v>
+        <v>0.06347011761004495</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1440,7 +1440,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.03097229806592949</v>
+        <v>0.03097227920566148</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1451,7 +1451,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.08646891780843546</v>
+        <v>0.08646889022553594</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1462,7 +1462,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.08096825031151056</v>
+        <v>0.08096822651417845</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1473,7 +1473,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.05996134206790771</v>
+        <v>0.05996131957213002</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1484,7 +1484,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.0418936119943929</v>
+        <v>0.04189359231712686</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1495,7 +1495,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.0393604366814202</v>
+        <v>0.03936042158424158</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1506,7 +1506,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.03682200907943756</v>
+        <v>0.03682200304672723</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1517,7 +1517,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.03462048445980948</v>
+        <v>0.03462047915719069</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1528,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.06689018655369772</v>
+        <v>0.0668901607942427</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1539,7 +1539,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.006742513498408265</v>
+        <v>0.006742493899774438</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1550,7 +1550,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>-0.0003800631702510771</v>
+        <v>-0.0003800764996242378</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1561,7 +1561,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>-0.01039893246349877</v>
+        <v>-0.01039893972716399</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1572,7 +1572,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.02815667280809953</v>
+        <v>0.02815666263374661</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1583,7 +1583,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.01720260735763812</v>
+        <v>0.01720259643288413</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1594,7 +1594,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>-0.02653810209835106</v>
+        <v>-0.02653808792119827</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1605,7 +1605,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.01441156268663768</v>
+        <v>0.01441156398814769</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1616,7 +1616,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.03949248247737636</v>
+        <v>0.03949246114231286</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.3826497945103386</v>
+        <v>-0.3826495693895028</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>-0.2667204162697959</v>
+        <v>-0.2667202688127164</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>-0.1236809393930255</v>
+        <v>-0.1236808598892666</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1684,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>-0.1112875289700296</v>
+        <v>-0.1112874557071431</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1695,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>-0.1045297103074525</v>
+        <v>-0.1045296440435968</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1706,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.0428740504015611</v>
+        <v>-0.04287402142824311</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1717,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.02284929154443837</v>
+        <v>-0.02284926928860796</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1728,7 +1728,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.03257431626641187</v>
+        <v>-0.03257428591980453</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1739,7 +1739,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-0.02812833131351345</v>
+        <v>-0.02812828532520481</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1750,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.006000527552599383</v>
+        <v>0.006000520559884888</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1761,7 +1761,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.01050392427637906</v>
+        <v>0.01050391028924654</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1772,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>-0.01815294744684855</v>
+        <v>-0.01815293841008925</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1783,7 +1783,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.01213988411983777</v>
+        <v>-0.01213988224189837</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1794,7 +1794,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>-0.0001382112011015092</v>
+        <v>-0.0001382165301098779</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1805,7 +1805,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.02053150871488857</v>
+        <v>-0.02053149814165198</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1816,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>-0.01447623902350111</v>
+        <v>-0.01447623580807259</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1827,7 +1827,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.008455638768378418</v>
+        <v>-0.008455643021517292</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1838,7 +1838,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.1027280589096889</v>
+        <v>-0.1027279883898096</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1849,7 +1849,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-0.09244971272019054</v>
+        <v>-0.09244964795517145</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1860,7 +1860,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.08315767284703043</v>
+        <v>-0.0831576143202153</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1871,7 +1871,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>-0.04397758497238267</v>
+        <v>-0.04397754806413102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1882,7 +1882,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>-0.1328382143503515</v>
+        <v>-0.1328381529500121</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1893,7 +1893,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>-0.122563071771367</v>
+        <v>-0.1225630173217902</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1904,7 +1904,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>-0.07996387309340311</v>
+        <v>-0.07996382598720837</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1915,7 +1915,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-0.05556612100437687</v>
+        <v>-0.0555660904561544</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1926,7 +1926,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.04949064675089174</v>
+        <v>-0.04949062298198637</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1937,7 +1937,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-0.04326207807551709</v>
+        <v>-0.04326206124481097</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1948,7 +1948,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.03712230539896708</v>
+        <v>-0.03712229568970742</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1959,7 +1959,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>-0.06269524570108634</v>
+        <v>-0.06269520370869705</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1970,7 +1970,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>-0.042571217969063</v>
+        <v>-0.04257118356109561</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1981,7 +1981,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>-0.02755502864727538</v>
+        <v>-0.02755500179309493</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1992,7 +1992,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>-0.006551491029138871</v>
+        <v>-0.006551471723329217</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2003,7 +2003,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>-0.02982348773599277</v>
+        <v>-0.02982347272881291</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2014,7 +2014,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>-0.02644031648198835</v>
+        <v>-0.02644029330155387</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2025,7 +2025,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.03497758497238507</v>
+        <v>0.03497755452847149</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2036,7 +2036,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.0005514910291379302</v>
+        <v>0.0005514792599926573</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2047,7 +2047,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>-0.03786285935650879</v>
+        <v>-0.0378628195426436</v>
       </c>
     </row>
   </sheetData>
@@ -2082,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.2382084004580065</v>
+        <v>-0.238208307612112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2093,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>-0.1578830990370328</v>
+        <v>-0.1578830431710863</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2104,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>-0.06717556332919372</v>
+        <v>-0.06717553548167388</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>-0.05897519344437185</v>
+        <v>-0.05897516894027177</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>-0.05532100810317075</v>
+        <v>-0.05532098467074853</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.01134671581323232</v>
+        <v>-0.0113467126786162</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2148,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.001338533626969785</v>
+        <v>-0.001338531119650099</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.01920260735763879</v>
+        <v>-0.01920259565036275</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.005604556111448389</v>
+        <v>0.005604558963542949</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.002000174419730882</v>
+        <v>0.002000169574628785</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.005001297588547615</v>
+        <v>0.005001291698375709</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>-0.01798592233458685</v>
+        <v>-0.01798591517964976</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.01446872727213666</v>
+        <v>-0.01446872121274012</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>-0.006467238346154147</v>
+        <v>-0.006467234921171183</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.02250150940902529</v>
+        <v>-0.02250149683552394</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>-0.0204277164386033</v>
+        <v>-0.02042770938571525</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.01841156268663724</v>
+        <v>-0.01841155809832173</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.07262203594426353</v>
+        <v>-0.07262200129486018</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-0.06747014761474546</v>
+        <v>-0.06747011448535734</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.06312897087403613</v>
+        <v>-0.0631289413009064</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>-0.0307941443230586</v>
+        <v>-0.03079412574049734</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>-0.08596825031151134</v>
+        <v>-0.08596822315788089</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>-0.07996134206790728</v>
+        <v>-0.07996131909954762</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>-0.05949248247737238</v>
+        <v>-0.05949246047796919</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-0.04186043668141792</v>
+        <v>-0.04186041703982823</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.03932200907944505</v>
+        <v>-0.03932199401766567</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-0.03662048445980481</v>
+        <v>-0.03662047855349293</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.03449871781321079</v>
+        <v>-0.03449871256693982</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>-0.06674251349840787</v>
+        <v>-0.06674248789854254</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>-0.006619936829749484</v>
+        <v>-0.006619917447985735</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.000398932463504309</v>
+        <v>0.0003989457553394971</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.0104044328891213</v>
+        <v>0.01040444014877551</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>-0.0279348141485074</v>
+        <v>-0.0279348041752403</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>-0.01706860757321405</v>
+        <v>-0.01706859687069073</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.02679414432306215</v>
+        <v>0.02679412975297168</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>-0.01440443288912086</v>
+        <v>-0.01440443419019033</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>-0.03939146874048305</v>
+        <v>-0.03939144756803437</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01175547679739971</v>
+        <v>0.01175546423228308</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.03037845894388175</v>
+        <v>0.03037842805177955</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2535,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.004685308539874921</v>
+        <v>0.004685302914385204</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2546,7 +2546,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.003934104229930386</v>
+        <v>0.003934099376889049</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2557,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.007578186625821592</v>
+        <v>0.007578177463143966</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2568,7 +2568,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.0002440748436691079</v>
+        <v>0.0002440745181634122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2579,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.0002475885711369014</v>
+        <v>0.000247588078326968</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2590,7 +2590,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.0009846301402225218</v>
+        <v>0.0009846284276349769</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2612,7 +2612,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>5.275525873325204E-06</v>
+        <v>5.275512002888286E-06</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2623,7 +2623,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3.396723788000551E-05</v>
+        <v>3.396714773870984E-05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2634,7 +2634,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.000646710244335153</v>
+        <v>0.0006467096313902776</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.0001306332700669318</v>
+        <v>0.0001306331823933879</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2656,7 +2656,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1.672918740560314E-05</v>
+        <v>1.672916939553288E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2667,7 +2667,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.0004701896820072354</v>
+        <v>0.0004701891498135331</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2678,7 +2678,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.0005526969138696389</v>
+        <v>0.0005526965463558544</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2689,7 +2689,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.0002060025512401486</v>
+        <v>0.0002060024908476576</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2700,7 +2700,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.001634734364715959</v>
+        <v>0.001634732339764385</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2711,7 +2711,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.01278346189497334</v>
+        <v>0.01278344553604105</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2722,7 +2722,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.002920398731622115</v>
+        <v>0.002920395037412182</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2733,7 +2733,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.001347414790588642</v>
+        <v>0.001347412690202865</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2744,7 +2744,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.007327316724275679</v>
+        <v>0.007327310441910016</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2755,7 +2755,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.01275142578984585</v>
+        <v>0.01275141529175681</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.005991986779651554</v>
+        <v>0.005991980435983943</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2777,7 +2777,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.0006513141715698211</v>
+        <v>0.0006513134709884884</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2788,7 +2788,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.0007547425348958481</v>
+        <v>0.0007547418397836261</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2799,7 +2799,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.002285686753668964</v>
+        <v>0.002285685320077136</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2810,7 +2810,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.001397726765549984</v>
+        <v>0.001397726118741503</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2821,7 +2821,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.002899190543885813</v>
+        <v>0.002899187410827073</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2832,7 +2832,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.001240277320245853</v>
+        <v>0.001240275125857901</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2843,7 +2843,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.0001618932178738564</v>
+        <v>0.000161892895818596</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2854,7 +2854,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>3.537618135767327E-05</v>
+        <v>3.537615555299384E-05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.002218586595917462</v>
+        <v>0.002218584585069923</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2876,7 +2876,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.001339997844244191</v>
+        <v>0.001339995621939679</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2887,7 +2887,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.002560422247113837</v>
+        <v>0.002560418317734893</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>7.129797518666968E-05</v>
+        <v>7.129797959962287E-05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2909,7 +2909,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.001010137368923793</v>
+        <v>0.001010135742786126</v>
       </c>
     </row>
   </sheetData>
@@ -2944,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00599248817209741</v>
+        <v>0.005992481767123081</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2955,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.01547267959596255</v>
+        <v>0.01547266386165091</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.002386178994022714</v>
+        <v>0.002386176129007822</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2977,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.002003698848156432</v>
+        <v>0.002003696376426944</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2988,7 +2988,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.006541853412009857</v>
+        <v>0.006541845502354704</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2999,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.0008068029554664236</v>
+        <v>0.0008068018794205045</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3010,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>8.182186265415226E-05</v>
+        <v>8.182169976223008E-05</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3021,7 +3021,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.0007074041783994289</v>
+        <v>0.0007074029479969823</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3032,7 +3032,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.0004083664967424738</v>
+        <v>0.0004083652082531586</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3043,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1.74419731990838E-06</v>
+        <v>1.744192630326324E-06</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3054,7 +3054,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1.1231688130664E-05</v>
+        <v>1.123165835892337E-05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3065,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.0005088217521898031</v>
+        <v>0.0005088212699444483</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3076,7 +3076,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.0001719506245123625</v>
+        <v>0.000171950509049168</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3087,7 +3087,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1.488925983395006E-05</v>
+        <v>1.488924381121137E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3098,7 +3098,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.0003433651034434604</v>
+        <v>0.0003433647148121111</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3109,7 +3109,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.0007379297042398036</v>
+        <v>0.0007379292135389903</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3120,7 +3120,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.0001615375196806212</v>
+        <v>0.0001615374723051843</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3131,7 +3131,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.001559975171190331</v>
+        <v>0.001559973238798307</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3142,7 +3142,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.01151888329506079</v>
+        <v>0.01151886855440765</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3153,7 +3153,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.003411767407115462</v>
+        <v>0.003411763091385467</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3164,7 +3164,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.001781537428708901</v>
+        <v>0.001781534651641437</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3175,7 +3175,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.005006674969241232</v>
+        <v>0.005006670676550584</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3186,7 +3186,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.01006908243603277</v>
+        <v>0.01006907414630831</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3197,7 +3197,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.00468859590535331</v>
+        <v>0.004688590941608339</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.0003317531297497567</v>
+        <v>0.0003317527729862491</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.0003842760197514394</v>
+        <v>0.0003842756657590485</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3230,7 +3230,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.002015246196327425</v>
+        <v>0.002015244932342952</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3241,7 +3241,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.001217666465986866</v>
+        <v>0.001217665902508713</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3252,7 +3252,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.001476730552898431</v>
+        <v>0.001476728957001683</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3263,7 +3263,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.001225766686587804</v>
+        <v>0.001225764517887029</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3274,7 +3274,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.0001886929325323194</v>
+        <v>0.0001886925571525921</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3285,7 +3285,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>5.500425622528837E-05</v>
+        <v>5.500421611515094E-05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3296,7 +3296,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.002218586595921224</v>
+        <v>0.002218584585063077</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3307,7 +3307,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.00133999784424077</v>
+        <v>0.001339995621933987</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3318,7 +3318,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.002560422247110949</v>
+        <v>0.002560418317734126</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3329,7 +3329,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>7.129797516824965E-05</v>
+        <v>7.129797957361461E-05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3340,7 +3340,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.001010137368933073</v>
+        <v>0.001010135742784968</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2043509866597045</v>
+        <v>0.2043507682304766</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3386,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09818756192652343</v>
+        <v>0.09818746238917317</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3397,7 +3397,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.01995776279333739</v>
+        <v>0.01995773911969891</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3408,7 +3408,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.01597437951903491</v>
+        <v>0.01597436011716151</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3419,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.0142186860377502</v>
+        <v>0.0142186691794796</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3430,7 +3430,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.001970863070817602</v>
+        <v>0.00197086050810424</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3441,7 +3441,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.0005250358252544499</v>
+        <v>0.000525034798041035</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.001438972440382452</v>
+        <v>0.001438969990156815</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3463,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.0008254024190773684</v>
+        <v>0.000825399849554705</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>4.000000000015011E-05</v>
+        <v>3.999989672565739E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3485,7 +3485,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.0001352628231105752</v>
+        <v>0.0001352624706816256</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3496,7 +3496,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.0006572079396901133</v>
+        <v>0.0006572073483565136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3507,7 +3507,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.0003575360775295646</v>
+        <v>0.0003575358557849479</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3518,7 +3518,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>4.186400008827896E-05</v>
+        <v>4.186395724741219E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3529,7 +3529,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.0009313401529053501</v>
+        <v>0.0009313391470914418</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3540,7 +3540,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.0006314766335792557</v>
+        <v>0.0006314762478594681</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3551,7 +3551,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.0004114273611251735</v>
+        <v>0.0004114272638451414</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3562,7 +3562,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.01588330958304736</v>
+        <v>0.01588328995802812</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3573,7 +3573,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.01349393284411162</v>
+        <v>0.01349391564774114</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3584,7 +3584,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.01099231419132059</v>
+        <v>0.01099230055277192</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3595,7 +3595,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.002905180592443312</v>
+        <v>0.002905176149405199</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3606,7 +3606,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.02531807136838145</v>
+        <v>0.02531805002783166</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3617,7 +3617,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.02189176089199022</v>
+        <v>0.02189174329244836</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3628,7 +3628,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.0100857710758231</v>
+        <v>0.01008576068581978</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3639,7 +3639,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.004849910971924606</v>
+        <v>0.004849905916558057</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3650,7 +3650,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.004006044327172624</v>
+        <v>0.004006040775553831</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3661,7 +3661,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.003247296707456224</v>
+        <v>0.003247294786757448</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3672,7 +3672,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.002587040406737787</v>
+        <v>0.002587039311185187</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3683,7 +3683,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.00844142803646325</v>
+        <v>0.008441419261092393</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3694,7 +3694,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.001868345493752502</v>
+        <v>0.001868342272614758</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3705,7 +3705,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.0007603165083109379</v>
+        <v>0.0007603150358628434</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3716,7 +3716,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.0001511061969470055</v>
+        <v>0.0001511060948820509</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3727,7 +3727,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.001695521063653057</v>
+        <v>0.001695519576826319</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3738,7 +3738,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.001002123984928378</v>
+        <v>0.001002122365240887</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3749,7 +3749,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.001909856393761056</v>
+        <v>0.001909853554460216</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3760,7 +3760,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.0002079894682213795</v>
+        <v>0.0002079894929212935</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3771,7 +3771,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.003000911832477819</v>
+        <v>0.003000907112006602</v>
       </c>
     </row>
   </sheetData>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2031641072875664</v>
+        <v>0.2031638907693985</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3817,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09606685341667073</v>
+        <v>0.09606675711649079</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3828,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.01980953107773575</v>
+        <v>0.01980950767019801</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3839,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.01586298754605625</v>
+        <v>0.01586296834930293</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3850,7 +3850,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.01398687427451103</v>
+        <v>0.01398685782882225</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3861,7 +3861,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.001966932157581858</v>
+        <v>0.001966929602040519</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3872,7 +3872,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.0005238817963532719</v>
+        <v>0.0005238807725815944</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3883,7 +3883,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.001429826209555868</v>
+        <v>0.001429823782896506</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3894,7 +3894,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.0008226140716891547</v>
+        <v>0.0008226115165119619</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3905,7 +3905,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>4.000702861885011E-05</v>
+        <v>4.000692531687195E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3916,7 +3916,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.0001353454027731175</v>
+        <v>0.0001353450500167812</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3927,7 +3927,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.0006530229032338352</v>
+        <v>0.0006530223177700493</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3938,7 +3938,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.0003567208553185605</v>
+        <v>0.0003567206343791554</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3949,7 +3949,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>4.184427416207655E-05</v>
+        <v>4.184423133481166E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3960,7 +3960,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.000927860775793999</v>
+        <v>0.0009278597757797526</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3971,7 +3971,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.00062685309516152</v>
+        <v>0.000626852713918162</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3982,7 +3982,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.0004104834675452768</v>
+        <v>0.0004104833705152108</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3993,7 +3993,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.01582701419204241</v>
+        <v>0.01582699467068754</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4004,7 +4004,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.0130991702012013</v>
+        <v>0.01309915375570236</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4015,7 +4015,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.01090046551694865</v>
+        <v>0.01090045204920296</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4026,7 +4026,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.0028823073045925</v>
+        <v>0.002882302913854514</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4037,7 +4037,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.0250365312534126</v>
+        <v>0.02503651027209403</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4048,7 +4048,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.02141552278733414</v>
+        <v>0.02141550576716112</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4059,7 +4059,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.009933576471418338</v>
+        <v>0.009933566320235267</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4070,7 +4070,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.004839889962632051</v>
+        <v>0.004839884923329874</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4081,7 +4081,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.00399554451386551</v>
+        <v>0.003995540976670452</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4092,7 +4092,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.003212667281482943</v>
+        <v>0.003212665392636612</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4103,7 +4103,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.002568227088889727</v>
+        <v>0.002568226006050401</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4114,7 +4114,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.008385256941604743</v>
+        <v>0.008385248258962117</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4125,7 +4125,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.001856132162999346</v>
+        <v>0.001856128976810643</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4136,7 +4136,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.0007594387508626044</v>
+        <v>0.0007594372815331679</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4147,7 +4147,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.000151174258449116</v>
+        <v>0.000151174156551034</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4158,7 +4158,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.001669794262250561</v>
+        <v>0.00166979280991527</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4169,7 +4169,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.0009904277001560849</v>
+        <v>0.000990426109006348</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4180,7 +4180,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.001941357620505501</v>
+        <v>0.001941354710011279</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4191,7 +4191,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.0002077918292124062</v>
+        <v>0.0002077918537137262</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4202,7 +4202,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.002985283928183219</v>
+        <v>0.002985279245223995</v>
       </c>
     </row>
   </sheetData>
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.838253421901074</v>
+        <v>3.838251158127305</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4257,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3.852192161081343E-08</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5.362201407223439E-08</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4285,7 +4285,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5.755567039920158E-08</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4299,7 +4299,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>6.082773458180084E-08</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4313,7 +4313,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>6.639735704124081E-08</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4327,7 +4327,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6.668191623040866E-08</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4341,7 +4341,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6.745153565918801E-08</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4355,7 +4355,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>6.943942920314812E-08</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4369,7 +4369,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6.991327370970274E-08</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4383,7 +4383,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>6.98539986625194E-08</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4397,7 +4397,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>6.965778530428742E-08</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4411,7 +4411,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>7.15004787542112E-08</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4425,7 +4425,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>7.205149079813227E-08</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4439,7 +4439,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>7.22497285841547E-08</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4453,7 +4453,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>7.321054320497632E-08</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4467,7 +4467,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>7.462527863237502E-08</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4481,7 +4481,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>7.516445690071372E-08</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4495,7 +4495,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4.118961181780512E-08</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4509,7 +4509,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>5.868788877827619E-08</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4523,7 +4523,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>6.200258762711346E-08</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4537,7 +4537,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>6.464341265307307E-08</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4551,7 +4551,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5.900945461760442E-08</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4565,7 +4565,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>6.709017691897921E-08</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4579,7 +4579,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>7.129711805785967E-08</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4593,7 +4593,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>6.709801732533296E-08</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4607,7 +4607,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>6.794839634122818E-08</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4621,7 +4621,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>7.056768331082666E-08</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4635,7 +4635,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>7.217424207124487E-08</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4649,7 +4649,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>7.364991618042178E-08</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4663,7 +4663,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>7.521576542755981E-08</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4677,7 +4677,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>7.545788225258582E-08</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4691,7 +4691,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>7.536662917649716E-08</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.38807649275221</v>
+        <v>2.388075557888226</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4746,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5.638596208403084E-09</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4760,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.490231591892019E-09</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4774,7 +4774,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.096246679981328E-08</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4788,7 +4788,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.80711895489152E-09</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4802,7 +4802,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5.129373623095673E-09</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4816,7 +4816,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6.110174445474579E-09</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4830,7 +4830,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6.502717854092253E-09</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4844,7 +4844,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>7.825178848179528E-09</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4858,7 +4858,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>4.844633172985739E-08</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4872,7 +4872,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1.042090085351682E-08</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4886,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1.083823178328117E-08</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4900,7 +4900,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1.083996704994038E-08</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4914,7 +4914,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2.63281799034167E-08</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4928,7 +4928,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1.515146613582433E-08</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4942,7 +4942,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>5.471546898409118E-08</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4956,7 +4956,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2.459838185443226E-08</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4970,7 +4970,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>5.889821912211556E-08</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4984,7 +4984,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4.59427831436308E-10</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4998,7 +4998,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3.124678667312276E-08</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5012,7 +5012,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>5.385002284718282E-09</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5026,7 +5026,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4.012470646078867E-08</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5040,7 +5040,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3.356292834859637E-08</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5054,7 +5054,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4.725815683033051E-09</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5068,7 +5068,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>6.643466123481924E-09</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5082,7 +5082,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4.544417969268041E-08</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5096,7 +5096,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>9.029062996396529E-08</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5110,7 +5110,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>6.036954920944527E-09</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5124,7 +5124,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>6.592648566090639E-09</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5138,7 +5138,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>6.001233333163437E-08</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5152,7 +5152,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>6.052398888888485E-08</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5166,7 +5166,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>6.028172803787263E-08</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5180,7 +5180,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>5.958579012769058E-08</v>
       </c>
     </row>
   </sheetData>
@@ -5226,7 +5226,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.9970917494058404</v>
+        <v>0.9970917509822724</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5237,7 +5237,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.9862651046555689</v>
+        <v>0.9862651117962768</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5248,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.9825956492731742</v>
+        <v>0.9825956586260624</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5259,7 +5259,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.9791637555657355</v>
+        <v>0.9791637670409945</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5270,7 +5270,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.9711491459933342</v>
+        <v>0.9711491621563527</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5281,7 +5281,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.9701801774981346</v>
+        <v>0.9701801941531818</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5292,7 +5292,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.9691133628003634</v>
+        <v>0.9691133805322796</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5303,7 +5303,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.9660285698375002</v>
+        <v>0.9660285902129992</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5314,7 +5314,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.9643954864436679</v>
+        <v>0.9643955101056086</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5325,7 +5325,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.9644802123232236</v>
+        <v>0.9644802358737882</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5336,7 +5336,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.9647745810791857</v>
+        <v>0.964774604236862</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5347,7 +5347,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.9616978797147122</v>
+        <v>0.9616979043480076</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5358,7 +5358,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.9606008647114818</v>
+        <v>0.960600889719966</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5369,7 +5369,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.9603745249640455</v>
+        <v>0.9603745498909166</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5380,7 +5380,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.9585789233029866</v>
+        <v>0.9585789492381568</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5391,7 +5391,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.9550632200541423</v>
+        <v>0.9550632471528082</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5402,7 +5402,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.9539670415279077</v>
+        <v>0.9539670686265778</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5413,7 +5413,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.9953231792294082</v>
+        <v>0.9953231818755279</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5424,7 +5424,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.9806561096790971</v>
+        <v>0.9806561215616895</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5435,7 +5435,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.9765504724900502</v>
+        <v>0.9765504868691922</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5446,7 +5446,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.9726985501286373</v>
+        <v>0.9726985673733378</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5457,7 +5457,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.9807660788976463</v>
+        <v>0.9807660883865872</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5468,7 +5468,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.9700395223946182</v>
+        <v>0.9700395362302244</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5479,7 +5479,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.962692737705989</v>
+        <v>0.962692755411963</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5490,7 +5490,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.9701453206709861</v>
+        <v>0.9701453373807403</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5501,7 +5501,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.9688731145667422</v>
+        <v>0.9688731318745977</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5512,7 +5512,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.9636931984726568</v>
+        <v>0.9636932173932822</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5523,7 +5523,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.9601827491854393</v>
+        <v>0.960182768924422</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5534,7 +5534,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.9569827847474104</v>
+        <v>0.9569828063797958</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5545,7 +5545,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.9538497692100363</v>
+        <v>0.9538497943412286</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5556,7 +5556,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.9532990179681777</v>
+        <v>0.9532990439752204</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5567,7 +5567,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.9535136870546177</v>
+        <v>0.9535137137385373</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5613,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>12.62318154747794</v>
+        <v>12.62318156743557</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5624,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>12.4861162249395</v>
+        <v>12.48611631534087</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5635,7 +5635,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>12.43966091979838</v>
+        <v>12.43966103820595</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5646,7 +5646,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>12.39621314546221</v>
+        <v>12.39621329073899</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5657,7 +5657,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>12.29474818827561</v>
+        <v>12.29474839289943</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5668,7 +5668,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>12.28248104712638</v>
+        <v>12.28248125797928</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5679,7 +5679,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>12.2689751730526</v>
+        <v>12.26897539753866</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5690,7 +5690,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>12.22992169414275</v>
+        <v>12.22992195209657</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>12.20924685837684</v>
+        <v>12.20924715793701</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5712,7 +5712,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>12.21031948801201</v>
+        <v>12.21031978616216</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5723,7 +5723,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>12.21404619646249</v>
+        <v>12.21404648963867</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5734,7 +5734,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>12.17509515718826</v>
+        <v>12.17509546904578</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5745,7 +5745,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>12.16120694724736</v>
+        <v>12.16120726385477</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5756,7 +5756,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>12.15834148604482</v>
+        <v>12.158341801619</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5767,7 +5767,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>12.13560916901581</v>
+        <v>12.13560949735506</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5778,7 +5778,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>12.09110036588544</v>
+        <v>12.09110070895455</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5789,7 +5789,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>12.07722274574331</v>
+        <v>12.07722308881247</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5800,7 +5800,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>12.60079144904431</v>
+        <v>12.60079148254418</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5811,7 +5811,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>12.41510634853737</v>
+        <v>12.41510649897099</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5822,7 +5822,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>12.36312898172404</v>
+        <v>12.36312916376397</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5833,7 +5833,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>12.31436364462855</v>
+        <v>12.31436386294646</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5844,7 +5844,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>12.4164985588442</v>
+        <v>12.41649867897419</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5855,7 +5855,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>12.28070035351587</v>
+        <v>12.28070052867464</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5866,7 +5866,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>12.18769005935782</v>
+        <v>12.18769028351545</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5877,7 +5877,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>12.28203975969469</v>
+        <v>12.28203997124017</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5888,7 +5888,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>12.26593363041496</v>
+        <v>12.26593384953241</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5899,7 +5899,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>12.20035589266383</v>
+        <v>12.20035613219895</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5910,7 +5910,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>12.15591360468766</v>
+        <v>12.15591385458318</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5921,7 +5921,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>12.11540205490222</v>
+        <v>12.11540232876822</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5932,7 +5932,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>12.07573807819906</v>
+        <v>12.07573839635995</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5943,7 +5943,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>12.06876556747713</v>
+        <v>12.06876589672629</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5954,7 +5954,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>12.07148327811146</v>
+        <v>12.07148361592988</v>
       </c>
     </row>
   </sheetData>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.260258359925362E-22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6000,7 +6000,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.01426312912868246</v>
+        <v>0.0142631363493877</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6011,7 +6011,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.05375167117532155</v>
+        <v>0.0537517125258292</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6022,7 +6022,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.05940340983805826</v>
+        <v>0.05940346816312913</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6033,7 +6033,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.06265280977895347</v>
+        <v>0.06265288617372086</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6044,7 +6044,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.04484465767333146</v>
+        <v>-0.04484447425536161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6055,7 +6055,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.1374465887728646</v>
+        <v>-0.1374463364258374</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6066,7 +6066,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.1542506677279212</v>
+        <v>-0.154250401672739</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6077,7 +6077,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-0.1707705959169961</v>
+        <v>-0.1707702895065553</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6088,7 +6088,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-0.2730928667355143</v>
+        <v>-0.2730924364978758</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6099,7 +6099,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.2731051653647267</v>
+        <v>-0.2731047332124393</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6110,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>-0.2753030656640015</v>
+        <v>-0.2753026315855238</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6121,7 +6121,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.2543559386574159</v>
+        <v>-0.2543555058725407</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6132,7 +6132,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>-0.2575223350474408</v>
+        <v>-0.2575219096177374</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6143,7 +6143,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.2429932626798253</v>
+        <v>-0.2429928567109689</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6154,7 +6154,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>-0.2212350520789251</v>
+        <v>-0.2212346613252083</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.2156991879159777</v>
+        <v>-0.2156988113600204</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6176,7 +6176,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.1818627399016499</v>
+        <v>-0.1818623880238768</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6187,7 +6187,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-0.0007465673879115523</v>
+        <v>-0.0007465408184284526</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6198,7 +6198,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.08797843403184298</v>
+        <v>-0.08797826718510326</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6209,7 +6209,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>-0.139982347372728</v>
+        <v>-0.1399821198182946</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6220,7 +6220,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>-0.2129558420986569</v>
+        <v>-0.2129555315600738</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6231,7 +6231,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.04574994851852528</v>
+        <v>0.04575001468425591</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6242,7 +6242,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>-0.01100422948611766</v>
+        <v>-0.01100409438439699</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6253,7 +6253,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-0.02155973391664786</v>
+        <v>-0.02155954750089012</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6264,7 +6264,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.03440222423393269</v>
+        <v>-0.03440204431341898</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6275,7 +6275,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-0.01913602638178322</v>
+        <v>-0.01913585019618454</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6286,7 +6286,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.02531058050620711</v>
+        <v>-0.02531036786955523</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6297,7 +6297,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>-0.01860389915555167</v>
+        <v>-0.01860367680846876</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6308,7 +6308,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.05012090546358986</v>
+        <v>0.05012111653090034</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6319,7 +6319,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>-0.08516871154284254</v>
+        <v>-0.0851684380488438</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6330,7 +6330,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>-0.1248601565131075</v>
+        <v>-0.1248598589084974</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6341,7 +6341,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>-0.152474187828279</v>
+        <v>-0.1524738581776449</v>
       </c>
     </row>
   </sheetData>
@@ -6376,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.3838253421901032</v>
+        <v>0.3838251158127152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6387,7 +6387,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.270584870783252</v>
+        <v>0.2705847193758592</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6398,7 +6398,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.125942466385551</v>
+        <v>0.1259423843148977</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6409,7 +6409,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.1137214802265161</v>
+        <v>0.1137214041246897</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6420,7 +6420,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.107590455797302</v>
+        <v>0.1075903859757664</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6431,7 +6431,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.04416365997999198</v>
+        <v>0.04416362941779769</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6442,7 +6442,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.02357371804533121</v>
+        <v>0.0235736946626107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6453,7 +6453,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.03366043110257889</v>
+        <v>0.03366039912193783</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6464,7 +6464,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.02919416928163571</v>
+        <v>0.0291941208512381</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6475,7 +6475,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-0.006211558666777292</v>
+        <v>-0.006211551304756091</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6486,7 +6486,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.01086240491864679</v>
+        <v>-0.01086239022926212</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6497,7 +6497,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.01879272423698122</v>
+        <v>0.01879271453396545</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6508,7 +6508,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.01256997660093944</v>
+        <v>0.01256997445935724</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6519,7 +6519,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.0001153531976473277</v>
+        <v>0.0001153588063328922</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6530,7 +6530,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.02132789564514088</v>
+        <v>0.02132788424936605</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6541,7 +6541,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.01507673302830798</v>
+        <v>0.0150767294025767</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6552,7 +6552,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.008802354482527697</v>
+        <v>0.008802358824802625</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6563,7 +6563,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.1032098063978398</v>
+        <v>0.1032097353065085</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6574,7 +6574,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.09416756959796378</v>
+        <v>0.09416750266712338</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6585,7 +6585,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.0849963145064434</v>
+        <v>0.08499625365445884</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6596,7 +6596,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.04509395679555905</v>
+        <v>0.04509391829568362</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6607,7 +6607,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.1355132680518984</v>
+        <v>0.1355132042153533</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6618,7 +6618,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.126332700166892</v>
+        <v>0.1263326424326985</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6629,7 +6629,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.08303945586587883</v>
+        <v>0.08303940561667215</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6640,7 +6640,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.05725016186437717</v>
+        <v>0.05725012953778154</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6651,7 +6651,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.05106706979506458</v>
+        <v>0.0510670444803322</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6662,7 +6662,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.04487517055819534</v>
+        <v>0.04487515235615247</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6673,7 +6673,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.03865004007251167</v>
+        <v>0.03865002930733002</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6684,7 +6684,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.06557443600467501</v>
+        <v>0.06557439087572216</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6695,7 +6695,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.04462058066886472</v>
+        <v>0.04462054348419851</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6706,7 +6706,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.02890575995537598</v>
+        <v>0.02890573102566923</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6717,7 +6717,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.006899907070847366</v>
+        <v>0.006899886588396027</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6728,7 +6728,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.03069627897650685</v>
+        <v>0.03069626309137863</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6739,7 +6739,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.02745563289333116</v>
+        <v>0.02745560821807679</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6750,7 +6750,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>-0.03585669542036307</v>
+        <v>-0.03585666369217633</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6761,7 +6761,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>-0.0006185771414528099</v>
+        <v>-0.0006185646979878709</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6772,7 +6772,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.03941964903121022</v>
+        <v>0.03941960692236941</v>
       </c>
     </row>
   </sheetData>
@@ -6807,7 +6807,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.2388076492752221</v>
+        <v>-0.2388075557888207</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6818,7 +6818,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>-0.1598280287823448</v>
+        <v>-0.1598279709262267</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6829,7 +6829,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>-0.06823488048595222</v>
+        <v>-0.06823485145138691</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6840,7 +6840,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>-0.06010584563078596</v>
+        <v>-0.06010581983104508</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6851,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>-0.05704870916736096</v>
+        <v>-0.05704868369151628</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6862,7 +6862,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.01180145059557635</v>
+        <v>-0.01180144689587423</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6873,7 +6873,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.001444663965693434</v>
+        <v>-0.001444661180747243</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6884,7 +6884,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.01997830144174813</v>
+        <v>-0.01997828862780499</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6895,7 +6895,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.005672385455358628</v>
+        <v>0.005672388720050721</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6906,7 +6906,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.002103468359325344</v>
+        <v>0.002103463203077471</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6917,7 +6917,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.005236156235428308</v>
+        <v>0.005236149852626826</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6928,7 +6928,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>-0.01878587078280471</v>
+        <v>-0.01878586267812265</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6939,7 +6939,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.01511881318614716</v>
+        <v>-0.01511880638255915</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6950,7 +6950,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>-0.006734629223836178</v>
+        <v>-0.006734625505486001</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6961,7 +6961,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.02355634870114778</v>
+        <v>-0.02355633475904808</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6972,7 +6972,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>-0.02144577369865192</v>
+        <v>-0.02144576559371142</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6983,7 +6983,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.01932803562890241</v>
+        <v>-0.01932803023026101</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6994,7 +6994,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.07296461692672876</v>
+        <v>-0.07296458187174443</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7005,7 +7005,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-0.06894570392070401</v>
+        <v>-0.06894566892682186</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7016,7 +7016,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.06485271468681462</v>
+        <v>-0.0648526829647359</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7027,7 +7027,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>-0.03182629014465643</v>
+        <v>-0.03182627009097939</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7038,7 +7038,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>-0.08754600627604736</v>
+        <v>-0.08754597763639779</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7049,7 +7049,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>-0.08245527961947735</v>
+        <v>-0.08245525445699738</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7060,7 +7060,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>-0.06182924769945083</v>
+        <v>-0.06182922342174908</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7071,7 +7071,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-0.04318300766164825</v>
+        <v>-0.04318298647316018</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7082,7 +7082,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.04060236114582361</v>
+        <v>-0.04060234470961851</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7093,7 +7093,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-0.038019975750964</v>
+        <v>-0.03801996870141586</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7104,7 +7104,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.03594187628348651</v>
+        <v>-0.03594186992751045</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7115,7 +7115,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>-0.06968531180395179</v>
+        <v>-0.06968528327495729</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7126,7 +7126,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>-0.007006565117145735</v>
+        <v>-0.007006544346440524</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7137,7 +7137,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.000355484548738294</v>
+        <v>0.0003554986935141932</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7148,7 +7148,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.01089335322054744</v>
+        <v>0.01089336062282977</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7159,7 +7159,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>-0.02890786996750515</v>
+        <v>-0.02890785896325998</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7170,7 +7170,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>-0.01788946658935779</v>
+        <v>-0.0178894546841153</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7181,7 +7181,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.02767965774861103</v>
+        <v>0.02767964196828065</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7192,7 +7192,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>-0.0151050944168964</v>
+        <v>-0.01510509539508281</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7203,7 +7203,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>-0.04103777196672408</v>
+        <v>-0.0410377489062123</v>
       </c>
     </row>
   </sheetData>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2043509866597073</v>
+        <v>0.2043507682304749</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7249,7 +7249,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09876117108123923</v>
+        <v>0.09876107065010725</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7260,7 +7260,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.02051750375420783</v>
+        <v>0.02051747911951422</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7271,7 +7271,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.01654528774390177</v>
+        <v>0.01654526733365305</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7282,7 +7282,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.01483026139633332</v>
+        <v>0.01483024346534907</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7293,7 +7293,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>0.002089703098988175</v>
+        <v>0.002089700312188705</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7304,7 +7304,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>0.0005578072364545472</v>
+        <v>0.0005578061259731583</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7315,7 +7315,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.001532157150508816</v>
+        <v>0.001532154485544035</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7326,7 +7326,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>0.0008844754767989664</v>
+        <v>0.0008844726860680537</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7337,7 +7337,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>4.300804020949894E-05</v>
+        <v>4.300792705831803E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7348,7 +7348,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.0001454091727384567</v>
+        <v>0.000145408786771933</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7359,7 +7359,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.0007060754253154569</v>
+        <v>0.0007060747561163977</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7370,7 +7370,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.0003865828239057824</v>
+        <v>0.0003865825643422047</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7381,7 +7381,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>4.536853714275574E-05</v>
+        <v>4.536848835334113E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7392,7 +7392,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.001009780696780086</v>
+        <v>0.001009779553834693</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7403,7 +7403,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.0006872290883406629</v>
+        <v>0.0006872286313789374</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7414,7 +7414,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.0004510544057081964</v>
+        <v>0.0004510542734624643</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7425,7 +7425,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.01597609945994385</v>
+        <v>0.01597607966975804</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7436,7 +7436,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.01362104125310873</v>
+        <v>0.01362102382232962</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7447,7 +7447,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.01143024808192762</v>
+        <v>0.01143023362301765</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7458,7 +7458,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.003046377683851602</v>
+        <v>0.00304637293516176</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7469,7 +7469,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.0260281490329914</v>
+        <v>0.02602812671702471</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7480,7 +7480,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.02275882426858402</v>
+        <v>0.02275880553159624</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7491,7 +7491,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.01071840710158128</v>
+        <v>0.01071839575410677</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7502,7 +7502,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.005142353184203357</v>
+        <v>0.005142347652833901</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7513,7 +7513,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>0.004256397348069884</v>
+        <v>0.004256393427874913</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7524,7 +7524,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>0.003459299488731013</v>
+        <v>0.003459297319044539</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7535,7 +7535,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>0.002785644068384208</v>
+        <v>0.002785642779343549</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7546,7 +7546,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>0.009156049338545202</v>
+        <v>0.009156039443833036</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7557,7 +7557,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.002040088173967467</v>
+        <v>0.002040084564503888</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7568,7 +7568,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>0.0008356693278622094</v>
+        <v>0.0008356676654494272</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7579,7 +7579,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0.0001662738619739408</v>
+        <v>0.0001662737405917456</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7590,7 +7590,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>0.001777926489061723</v>
+        <v>0.001777924877614864</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7601,7 +7601,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.001073844792425116</v>
+        <v>0.001073843011519541</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7612,7 +7612,7 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.002051866059548929</v>
+        <v>0.00205186291062604</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7623,7 +7623,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>0.0002285465150232827</v>
+        <v>0.0002285465291801486</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7634,7 +7634,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>0.003238007457736637</v>
+        <v>0.003238002245203443</v>
       </c>
     </row>
   </sheetData>
@@ -7669,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.199565780648132E-24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7680,7 +7680,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.0002489385649326189</v>
+        <v>0.0002489386909576996</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7691,7 +7691,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.0009381436404586912</v>
+        <v>0.0009381443621611971</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7702,7 +7702,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.001036785088585708</v>
+        <v>0.001036786106550231</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7713,7 +7713,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.001093497816268439</v>
+        <v>0.001093499149608661</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7724,7 +7724,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.0007826869283293735</v>
+        <v>-0.0007826837270818925</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7735,7 +7735,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.00239889551972116</v>
+        <v>-0.002398891115434678</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7746,7 +7746,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.002692182025251985</v>
+        <v>-0.002692177381713065</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7757,7 +7757,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-0.002980509164344367</v>
+        <v>-0.002980503816473312</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7768,7 +7768,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-0.004766369688244823</v>
+        <v>-0.004766362179181466</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7779,7 +7779,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.004766584339818061</v>
+        <v>-0.004766576797337776</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7790,7 +7790,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>-0.004804944936670975</v>
+        <v>-0.004804937360572327</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7801,7 +7801,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.004439348601572633</v>
+        <v>-0.004439341048051607</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7812,7 +7812,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>-0.004494612644001829</v>
+        <v>-0.004494605218852769</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7823,7 +7823,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.004241032493926412</v>
+        <v>-0.004241025408433206</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7834,7 +7834,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>-0.003861280079598369</v>
+        <v>-0.003861273259659446</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7845,7 +7845,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.003764661023011776</v>
+        <v>-0.003764654450870504</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7856,7 +7856,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.00317410359798186</v>
+        <v>-0.003174097456556154</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7867,7 +7867,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-1.30300590070703E-05</v>
+        <v>-1.302959528210966E-05</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7878,7 +7878,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.00153551334460429</v>
+        <v>-0.001535510432579336</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7889,7 +7889,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>-0.002443152856324538</v>
+        <v>-0.002443148884750448</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7900,7 +7900,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>-0.003716780605978713</v>
+        <v>-0.003716775186057985</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7911,7 +7911,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.0007984872342661682</v>
+        <v>0.0007984883890760196</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7922,7 +7922,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>-0.0001920600361777968</v>
+        <v>-0.0001920576782079459</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7933,7 +7933,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-0.0003762883426993979</v>
+        <v>-0.0003762850891306477</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7944,7 +7944,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.0006004320828915093</v>
+        <v>-0.0006004289426861534</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7955,7 +7955,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-0.0003339866661106146</v>
+        <v>-0.0003339835910918232</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7966,7 +7966,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.0004417529654244071</v>
+        <v>-0.0004417492542147213</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7977,7 +7977,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>-0.0003246992939733694</v>
+        <v>-0.0003246954132846903</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7988,7 +7988,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.0008747748244204579</v>
+        <v>0.0008747785082399692</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7999,7 +7999,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>-0.001486474436103902</v>
+        <v>-0.001486469662733139</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8010,7 +8010,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>-0.002179220835709169</v>
+        <v>-0.002179215641528853</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8021,7 +8021,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>-0.00266117660190773</v>
+        <v>-0.002661170848418784</v>
       </c>
     </row>
   </sheetData>
@@ -8056,7 +8056,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.260258359925362E-22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8067,7 +8067,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.01426312912868246</v>
+        <v>0.01426313634938769</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8078,7 +8078,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.05375167117532155</v>
+        <v>0.0537517125258292</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8089,7 +8089,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.05940340983805826</v>
+        <v>0.05940346816312913</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8100,7 +8100,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.06265280977895347</v>
+        <v>0.06265288617372088</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8111,7 +8111,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-0.04484465767333146</v>
+        <v>-0.04484447425536161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8122,7 +8122,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.1374465887728646</v>
+        <v>-0.1374463364258374</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8133,7 +8133,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-0.1542506677279212</v>
+        <v>-0.154250401672739</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8144,7 +8144,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-0.1707705959169961</v>
+        <v>-0.1707702895065553</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8155,7 +8155,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-0.2730928667355143</v>
+        <v>-0.2730924364978759</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8166,7 +8166,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>-0.2731051653647267</v>
+        <v>-0.2731047332124393</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8177,7 +8177,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>-0.2753030656640015</v>
+        <v>-0.2753026315855238</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8188,7 +8188,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.2543559386574159</v>
+        <v>-0.2543555058725407</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8199,7 +8199,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>-0.2575223350474408</v>
+        <v>-0.2575219096177374</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8210,7 +8210,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>-0.2429932626798253</v>
+        <v>-0.2429928567109689</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8221,7 +8221,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>-0.2212350520789251</v>
+        <v>-0.2212346613252083</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8232,7 +8232,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.2156991879159777</v>
+        <v>-0.2156988113600204</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8243,7 +8243,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>-0.1818627399016499</v>
+        <v>-0.1818623880238768</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8254,7 +8254,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>-0.0007465673879115523</v>
+        <v>-0.0007465408184284527</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8265,7 +8265,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>-0.08797843403184299</v>
+        <v>-0.08797826718510326</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8276,7 +8276,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>-0.139982347372728</v>
+        <v>-0.1399821198182946</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8287,7 +8287,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>-0.2129558420986569</v>
+        <v>-0.2129555315600738</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8298,7 +8298,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.04574994851852529</v>
+        <v>0.04575001468425591</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8309,7 +8309,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>-0.01100422948611766</v>
+        <v>-0.01100409438439699</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8320,7 +8320,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-0.02155973391664786</v>
+        <v>-0.02155954750089012</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8331,7 +8331,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>-0.03440222423393269</v>
+        <v>-0.03440204431341898</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8342,7 +8342,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-0.01913602638178322</v>
+        <v>-0.01913585019618454</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8353,7 +8353,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.02531058050620711</v>
+        <v>-0.02531036786955523</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8364,7 +8364,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>-0.01860389915555167</v>
+        <v>-0.01860367680846875</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8375,7 +8375,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>0.05012090546358986</v>
+        <v>0.05012111653090034</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8386,7 +8386,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>-0.08516871154284254</v>
+        <v>-0.0851684380488438</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8397,7 +8397,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>-0.1248601565131075</v>
+        <v>-0.1248598589084974</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8408,7 +8408,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>-0.152474187828279</v>
+        <v>-0.1524738581776449</v>
       </c>
     </row>
   </sheetData>
@@ -8449,7 +8449,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.3838253421901074</v>
+        <v>0.3838251158127305</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8463,7 +8463,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3.852192161081343E-09</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8477,7 +8477,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>5.362201407223439E-09</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8491,7 +8491,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5.755567039920158E-09</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8505,7 +8505,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>6.082773458180084E-09</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8519,7 +8519,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>6.639735704124081E-09</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8533,7 +8533,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6.668191623040867E-09</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8547,7 +8547,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6.7451535659188E-09</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8561,7 +8561,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>6.943942920314812E-09</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8575,7 +8575,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>6.991327370970273E-09</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8589,7 +8589,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>6.98539986625194E-09</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8603,7 +8603,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>6.965778530428741E-09</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8617,7 +8617,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>7.15004787542112E-09</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8631,7 +8631,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>7.205149079813226E-09</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8645,7 +8645,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>7.224972858415471E-09</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8659,7 +8659,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>7.321054320497632E-09</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8673,7 +8673,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>7.462527863237502E-09</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8687,7 +8687,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>7.516445690071372E-09</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8701,7 +8701,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4.118961181780512E-09</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -8715,7 +8715,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>5.868788877827619E-09</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8729,7 +8729,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>6.200258762711346E-09</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -8743,7 +8743,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>6.464341265307307E-09</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -8757,7 +8757,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5.900945461760442E-09</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -8771,7 +8771,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>6.709017691897921E-09</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -8785,7 +8785,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>7.129711805785967E-09</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -8799,7 +8799,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>6.709801732533296E-09</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -8813,7 +8813,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>6.794839634122817E-09</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -8827,7 +8827,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>7.056768331082666E-09</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8841,7 +8841,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>7.217424207124487E-09</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -8855,7 +8855,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>7.364991618042177E-09</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -8869,7 +8869,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>7.521576542755982E-09</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8883,7 +8883,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>7.545788225258581E-09</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8897,7 +8897,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>7.536662917649717E-09</v>
       </c>
     </row>
   </sheetData>
@@ -8938,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.238807649275221</v>
+        <v>0.2388075557888226</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8952,7 +8952,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5.638596208403084E-10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8966,7 +8966,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.490231591892019E-10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8980,7 +8980,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.096246679981328E-09</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8994,7 +8994,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.80711895489152E-10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9008,7 +9008,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5.129373623095673E-10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9022,7 +9022,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6.110174445474579E-10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9036,7 +9036,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>6.502717854092252E-10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9050,7 +9050,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>7.825178848179528E-10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9064,7 +9064,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>4.844633172985739E-09</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -9078,7 +9078,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1.042090085351682E-09</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9092,7 +9092,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1.083823178328117E-09</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -9106,7 +9106,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1.083996704994038E-09</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9120,7 +9120,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2.63281799034167E-09</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9134,7 +9134,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1.515146613582433E-09</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9148,7 +9148,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>5.471546898409118E-09</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -9162,7 +9162,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2.459838185443226E-09</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9176,7 +9176,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>5.889821912211556E-09</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -9190,7 +9190,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4.59427831436308E-11</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -9204,7 +9204,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3.124678667312276E-09</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9218,7 +9218,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>5.385002284718282E-10</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -9232,7 +9232,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4.012470646078866E-09</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9246,7 +9246,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3.356292834859637E-09</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9260,7 +9260,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4.725815683033051E-10</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -9274,7 +9274,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>6.643466123481923E-10</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -9288,7 +9288,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4.544417969268041E-09</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -9302,7 +9302,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>9.029062996396529E-09</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -9316,7 +9316,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>6.036954920944527E-10</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -9330,7 +9330,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>6.592648566090639E-10</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -9344,7 +9344,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>6.001233333163437E-09</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -9358,7 +9358,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>6.052398888888485E-09</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -9372,7 +9372,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>6.028172803787263E-09</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -9386,7 +9386,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>5.958579012769058E-09</v>
       </c>
     </row>
   </sheetData>
